--- a/Samples/Uniaxial Section Check.xlsx
+++ b/Samples/Uniaxial Section Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softwares\STRUCT Assist v5.2\Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\structIQe Technologies\SOFTWARE SOLUTIONS\STRUCT Assist\Uniaxial\File to deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B14867-A5A4-4CA2-9D2A-752EC0831AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C8FDB-4D1C-486F-9B07-1C215BB1E800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="OUTPUT" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Analysistype" localSheetId="0">INPUT!$D$4</definedName>
+    <definedName name="Analysistype" localSheetId="0">INPUT!$C$4</definedName>
     <definedName name="ExePath" localSheetId="0">INPUT!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">INPUT!$A$1:$K$235</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">INPUT!$A$1:$K$231</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">OUTPUT!$A$9:$G$27</definedName>
     <definedName name="SDPBi_CCCharStrain" localSheetId="0">INPUT!$E$49</definedName>
     <definedName name="SDPBi_CCExponent" localSheetId="0">INPUT!$E$50</definedName>
@@ -27,7 +27,7 @@
     <definedName name="SDPBi_CCUltStrain" localSheetId="0">INPUT!$E$48</definedName>
     <definedName name="SDPBi_ConcreteCurve" localSheetId="0">INPUT!$E$47</definedName>
     <definedName name="SDPBi_Ec" localSheetId="0">INPUT!$E$31</definedName>
-    <definedName name="SDPBi_End" localSheetId="0">INPUT!$E$25</definedName>
+    <definedName name="SDPBi_End" localSheetId="0">INPUT!$E$24</definedName>
     <definedName name="SDPBi_Ep" localSheetId="0">INPUT!$E$41</definedName>
     <definedName name="SDPBi_Es" localSheetId="0">INPUT!$E$36</definedName>
     <definedName name="SDPBi_fck" localSheetId="0">INPUT!$E$29</definedName>
@@ -36,26 +36,26 @@
     <definedName name="SDPBi_gmconc" localSheetId="0">INPUT!$E$30</definedName>
     <definedName name="SDPBi_gmPrestress" localSheetId="0">INPUT!$E$40</definedName>
     <definedName name="SDPBi_gmsteel" localSheetId="0">INPUT!$E$35</definedName>
-    <definedName name="SDPBi_importdxf" localSheetId="0">INPUT!$E$111</definedName>
-    <definedName name="SDPBi_JackStress" localSheetId="0">INPUT!$E$185</definedName>
-    <definedName name="SDPBi_Outputgen" localSheetId="0">INPUT!$E$24</definedName>
+    <definedName name="SDPBi_importdxf" localSheetId="0">INPUT!$E$109</definedName>
+    <definedName name="SDPBi_JackStress" localSheetId="0">INPUT!$E$181</definedName>
+    <definedName name="SDPBi_Outputgen" localSheetId="0">INPUT!$E$23</definedName>
     <definedName name="SDPBi_PTCurve" localSheetId="0">INPUT!$E$53</definedName>
     <definedName name="SDPBi_PTRatio_fpk" localSheetId="0">INPUT!$E$56</definedName>
     <definedName name="SDPBi_PTStrainRatio" localSheetId="0">INPUT!$E$55</definedName>
     <definedName name="SDPBi_PTUltStrain" localSheetId="0">INPUT!$E$54</definedName>
-    <definedName name="SDPBi_PTUse" localSheetId="0">INPUT!$E$184</definedName>
-    <definedName name="SDPBi_RectBreadth" localSheetId="0">INPUT!$E$115</definedName>
-    <definedName name="SDPBi_Rectheight" localSheetId="0">INPUT!$E$114</definedName>
-    <definedName name="SDPBi_Reinfcoord" localSheetId="0">INPUT!$B$167</definedName>
-    <definedName name="SDPBi_ReinfUse" localSheetId="0">INPUT!$E$165</definedName>
+    <definedName name="SDPBi_PTUse" localSheetId="0">INPUT!$E$180</definedName>
+    <definedName name="SDPBi_RectBreadth" localSheetId="0">INPUT!$E$113</definedName>
+    <definedName name="SDPBi_Rectheight" localSheetId="0">INPUT!$E$112</definedName>
+    <definedName name="SDPBi_Reinfcoord" localSheetId="0">INPUT!$B$163</definedName>
+    <definedName name="SDPBi_ReinfUse" localSheetId="0">INPUT!$E$161</definedName>
     <definedName name="SDPBi_SCRatio_ft" localSheetId="0">INPUT!$I$50</definedName>
     <definedName name="SDPBi_SCStrainRatio" localSheetId="0">INPUT!$I$49</definedName>
     <definedName name="SDPBi_SCUltStrain" localSheetId="0">INPUT!$I$48</definedName>
-    <definedName name="SDPbi_Sectioncoord" localSheetId="0">INPUT!$B$119</definedName>
-    <definedName name="SDPBi_sectiontype" localSheetId="0">INPUT!$E$109</definedName>
+    <definedName name="SDPbi_Sectioncoord" localSheetId="0">INPUT!$B$117</definedName>
+    <definedName name="SDPBi_sectiontype" localSheetId="0">INPUT!$E$107</definedName>
     <definedName name="SDPBi_SteelCurve" localSheetId="0">INPUT!$I$47</definedName>
-    <definedName name="SDPBi_UMCcheck" localSheetId="0">INPUT!$E$23</definedName>
-    <definedName name="SDPBi_UMCCheckstart" localSheetId="0">INPUT!$B$187</definedName>
+    <definedName name="SDPBi_UMCcheck" localSheetId="0">INPUT!$E$22</definedName>
+    <definedName name="SDPBi_UMCCheckstart" localSheetId="0">INPUT!$B$183</definedName>
     <definedName name="SDPBi_UMCConcStrStr" localSheetId="0">INPUT!$C$64</definedName>
     <definedName name="SDPBi_UMCEnd" localSheetId="1">OUTPUT!$C$26</definedName>
     <definedName name="SDPBi_UMCOutput" localSheetId="1">OUTPUT!$C$11</definedName>
@@ -83,9 +83,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
   <si>
-    <t>KEY INFORMATION</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -113,36 +110,18 @@
     <t>No</t>
   </si>
   <si>
-    <t>Material Properties</t>
-  </si>
-  <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t xml:space="preserve">Compressive strength (fck) </t>
-  </si>
-  <si>
-    <t>Young's modulus (Ec)</t>
-  </si>
-  <si>
     <t>Reinforcement Steel</t>
   </si>
   <si>
-    <t xml:space="preserve">Yield strength (Fy) </t>
-  </si>
-  <si>
-    <t>Young's modulus (Es)</t>
-  </si>
-  <si>
     <t>CODAL PROVISIONS</t>
   </si>
   <si>
     <t>mm</t>
   </si>
   <si>
-    <t>Section Details</t>
-  </si>
-  <si>
     <t>Type of Section</t>
   </si>
   <si>
@@ -158,12 +137,6 @@
     <t>Custom Section Coordinates</t>
   </si>
   <si>
-    <t>Point No</t>
-  </si>
-  <si>
-    <t>Reinforcement Details</t>
-  </si>
-  <si>
     <t>Bar Dia (mm)</t>
   </si>
   <si>
@@ -215,8 +188,448 @@
     <t>Yes</t>
   </si>
   <si>
-    <r>
-      <t>Material factor (</t>
+    <t>3.  When importing DXF, make a continuous P-Line for Section outline, and for circular or radial sections, make the section using small fragments.</t>
+  </si>
+  <si>
+    <t>Upper Limits of Data</t>
+  </si>
+  <si>
+    <t>4. Always ensure that "S.No." column is properly filled. Otherwise, program may give some error.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>NA Depth (m)</t>
+  </si>
+  <si>
+    <t>Mu (kN.m)</t>
+  </si>
+  <si>
+    <t>2. Do not insert any column in the entire sheet.</t>
+  </si>
+  <si>
+    <t>3. Program updates/deletes values only in the shaded areas. Any other fields if modified by user, will not be changed by the program.</t>
+  </si>
+  <si>
+    <t>4. However, User can unshade the shaded areas as per requirement. But must remember the constraints.</t>
+  </si>
+  <si>
+    <t>5. User can edit/format any details/parameters as per requirement, but that will not change the output order.</t>
+  </si>
+  <si>
+    <t>Start X (mm)</t>
+  </si>
+  <si>
+    <t>Start Y (mm)</t>
+  </si>
+  <si>
+    <t>End X (mm)</t>
+  </si>
+  <si>
+    <t>End Y (mm)</t>
+  </si>
+  <si>
+    <t>No of Bars</t>
+  </si>
+  <si>
+    <t>(Use this option if you want to generate output in OUTPUT tab or not.)</t>
+  </si>
+  <si>
+    <t>GENERAL NOTES:</t>
+  </si>
+  <si>
+    <t>Prestressing Steel</t>
+  </si>
+  <si>
+    <t>% Losses</t>
+  </si>
+  <si>
+    <t>Use Prestress Tendons</t>
+  </si>
+  <si>
+    <t>Use Reinforcement</t>
+  </si>
+  <si>
+    <t>M/Mu</t>
+  </si>
+  <si>
+    <r>
+      <t>M/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mu Ratio Check</t>
+    </r>
+  </si>
+  <si>
+    <t>Section Description</t>
+  </si>
+  <si>
+    <t>Jacking Stress per Tendon</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (kN.m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Moment (kN.m)</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>Stress (MPa)</t>
+  </si>
+  <si>
+    <t>Stress in Compression (MPa)</t>
+  </si>
+  <si>
+    <t>Stress in Tension (MPa)</t>
+  </si>
+  <si>
+    <r>
+      <t>Total Strand Area (mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>5.  Reinforcement Coordinates and Section coordinates are imported at the same time from the same DXF Section File.</t>
+  </si>
+  <si>
+    <t>4.  For Voided sections, Make a continuous P-Line for Void outline, and place it in "VOID" or "Void" layer.</t>
+  </si>
+  <si>
+    <t>1.  Following details will only be read, if Rectangle or Custom Section is selected in Section Details Section.</t>
+  </si>
+  <si>
+    <t>Axial Force (kN)</t>
+  </si>
+  <si>
+    <t>P (kN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case No.</t>
+  </si>
+  <si>
+    <t>Tendons</t>
+  </si>
+  <si>
+    <t>DXF Path (Varying)</t>
+  </si>
+  <si>
+    <t>2.  Program will stop reading the tendon details per section, until an empty Tendon No. row is encountered.</t>
+  </si>
+  <si>
+    <t>2.  Following option of not using reinforcement is not valid, in case, if DXF is imported.</t>
+  </si>
+  <si>
+    <r>
+      <t>Strain x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>4.  In order to ignore any tendon from the following details, Zero Strand area can also be provided.</t>
+  </si>
+  <si>
+    <t>5.  Tendon coordinates must be provided in Global coordinates only, w.r.t the section coordinates.</t>
+  </si>
+  <si>
+    <t>6.  All the circles in the DXF Section file, will be considered as Reinforcement.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cross-Sectional Area (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total Area of Reinforcement (mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total Area of Strands (mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Second MOI about C.G. (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C.G. from Top (m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>C.G. from Bottom (m)</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Do not insert/delete any row in between the output fields</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. However, you can insert/delete as many rows after the output fields.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>First MOI above C.G. about C.G. (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Concrete Curve Selection</t>
+  </si>
+  <si>
+    <t>Exponent (ɳ)</t>
+  </si>
+  <si>
+    <t>Reinf. Steel Curve Selection</t>
+  </si>
+  <si>
+    <t>&lt;=1, OK</t>
+  </si>
+  <si>
+    <r>
+      <t>x 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <t>Prestress Steel Curve Selection</t>
+  </si>
+  <si>
+    <r>
+      <t>Ratio of f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p0.1k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ultimate/Limiting Strain (Ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strain at Characteristic Strength (Ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Effective Lateral Compressive Stress (</t>
     </r>
     <r>
       <rPr>
@@ -224,7 +637,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>γ</t>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -232,26 +654,166 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>m)</t>
-    </r>
-  </si>
-  <si>
-    <t>3.  When importing DXF, make a continuous P-Line for Section outline, and for circular or radial sections, make the section using small fragments.</t>
-  </si>
-  <si>
-    <t>Upper Limits of Data</t>
-  </si>
-  <si>
-    <t>4. Always ensure that "S.No." column is properly filled. Otherwise, program may give some error.</t>
-  </si>
-  <si>
-    <t>2. INPUT UNITS for Loads are kN, kNm</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>Note:</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ulimate/Limiting Strain (Ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ratio of Ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>uk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; Design Strain (Ɛ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ratio of f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yk</t>
+    </r>
+  </si>
+  <si>
+    <t>IRC112:Idealised Bilinear</t>
+  </si>
+  <si>
+    <t>IRC112:Recto-Parabolic</t>
+  </si>
+  <si>
+    <t>7. In Case of Relative DXF Option, you could avoid providing full path to the DXF file, but only provide the filename or sub-folder name with filename.</t>
+  </si>
+  <si>
+    <t>5. M is Moment about X-Axis, or we can also say, Moment in direction of Y-Axis.</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\structIQe\STRUCT Assist\Samples\DXFs\Box-Uniaxial.dxf</t>
+  </si>
+  <si>
+    <t>Varying Custom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KEY INFORMATION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Do not edit)</t>
+    </r>
+  </si>
+  <si>
+    <t>UNIAXIAL ANALYSIS v6.1</t>
+  </si>
+  <si>
+    <t>Last Analyzed : 29-01-2026 15:59:04</t>
+  </si>
+  <si>
+    <r>
+      <t>1. INPUT UNITS are mm, N/mm</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MPa).</t>
+    </r>
+  </si>
+  <si>
+    <t>2. INPUT UNITS for Loads are kN, kNm.</t>
   </si>
   <si>
     <r>
@@ -274,419 +836,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, ROWS CAN BE INSERTED IN ANY FIELD UPTO ANY LIMIT</t>
-    </r>
-  </si>
-  <si>
-    <t>NA Depth (m)</t>
-  </si>
-  <si>
-    <t>Mu (kN.m)</t>
-  </si>
-  <si>
-    <t>2. Do not insert any column in the entire sheet.</t>
-  </si>
-  <si>
-    <t>3. Program updates/deletes values only in the shaded areas. Any other fields if modified by user, will not be changed by the program.</t>
-  </si>
-  <si>
-    <t>4. However, User can unshade the shaded areas as per requirement. But must remember the constraints.</t>
-  </si>
-  <si>
-    <t>5. User can edit/format any details/parameters as per requirement, but that will not change the output order.</t>
-  </si>
-  <si>
-    <t>Start X (mm)</t>
-  </si>
-  <si>
-    <t>Start Y (mm)</t>
-  </si>
-  <si>
-    <t>End X (mm)</t>
-  </si>
-  <si>
-    <t>End Y (mm)</t>
-  </si>
-  <si>
-    <t>No of Bars</t>
-  </si>
-  <si>
-    <t>(Use this option to Close the program, after it has completed the analysis, automatically.)</t>
-  </si>
-  <si>
-    <t>(Use this option if you want to generate output in OUTPUT tab or not.)</t>
-  </si>
-  <si>
-    <t>GENERAL NOTES:</t>
-  </si>
-  <si>
-    <t>Prestressing Steel</t>
-  </si>
-  <si>
-    <t>2.  Stress Strain curves must be provided with strain value in increasing order, starting from Zero.</t>
-  </si>
-  <si>
-    <t>% Losses</t>
-  </si>
-  <si>
-    <t>Use Prestress Tendons</t>
-  </si>
-  <si>
-    <t>Use Reinforcement</t>
-  </si>
-  <si>
-    <t>M/Mu</t>
-  </si>
-  <si>
-    <r>
-      <t>M/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mu Ratio Check</t>
-    </r>
-  </si>
-  <si>
-    <t>Loading &amp; Prestressing Details</t>
-  </si>
-  <si>
-    <t>Section Description</t>
-  </si>
-  <si>
-    <t>Jacking Stress per Tendon</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (kN.m)</t>
-    </r>
-  </si>
-  <si>
-    <t>Moment (kN.m)</t>
-  </si>
-  <si>
-    <t>MPa</t>
-  </si>
-  <si>
-    <t>Stress (MPa)</t>
-  </si>
-  <si>
-    <t>Stress in Compression (MPa)</t>
-  </si>
-  <si>
-    <t>Stress in Tension (MPa)</t>
-  </si>
-  <si>
-    <t>Sec-1</t>
-  </si>
-  <si>
-    <r>
-      <t>Total Strand Area (mm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>5.  Reinforcement Coordinates and Section coordinates are imported at the same time from the same DXF Section File.</t>
-  </si>
-  <si>
-    <t>4.  For Voided sections, Make a continuous P-Line for Void outline, and place it in "VOID" or "Void" layer.</t>
-  </si>
-  <si>
-    <t>1.  Following details will only be read, if Rectangle or Custom Section is selected in Section Details Section.</t>
-  </si>
-  <si>
-    <t>Axial Force (kN)</t>
-  </si>
-  <si>
-    <t>P (kN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Case No.</t>
-  </si>
-  <si>
-    <t>Tendons</t>
-  </si>
-  <si>
-    <t>DXF Path (Varying)</t>
-  </si>
-  <si>
-    <t>2.  Program will stop reading the tendon details per section, until an empty Tendon No. row is encountered.</t>
-  </si>
-  <si>
-    <t>3.  Tendon Nos in details below is not used to identify the tendons.</t>
-  </si>
-  <si>
-    <t>2.  Following option of not using reinforcement is not valid, in case, if DXF is imported.</t>
-  </si>
-  <si>
-    <t>Concrete (Custom Stress-Strain Curve)</t>
-  </si>
-  <si>
-    <t>Reinforcement Steel (Custom Stress-Strain Curve)</t>
-  </si>
-  <si>
-    <t>Prestressing Steel (Custom Stress-Strain Curve)</t>
-  </si>
-  <si>
-    <r>
-      <t>Strain x 10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. INPUT UNITS are mm, N/mm</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(MPa)</t>
-    </r>
-  </si>
-  <si>
-    <t>4.  In order to ignore any tendon from the following details, Zero Strand area can also be provided.</t>
-  </si>
-  <si>
-    <t>5.  Tendon coordinates must be provided in Global coordinates only, w.r.t the section coordinates.</t>
-  </si>
-  <si>
-    <t>6.  All the circles in the DXF Section file, will be considered as Reinforcement.</t>
-  </si>
-  <si>
-    <r>
-      <t>Cross-Sectional Area (m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Total Area of Reinforcement (mm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Total Area of Strands (mm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Second MOI about C.G. (m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C.G. from Top (m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>C.G. from Bottom (m)</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Do not insert/delete any row in between the output fields</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. However, you can insert/delete as many rows after the output fields.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>First MOI above C.G. about C.G. (m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Stress Strain Curve Selection</t>
-  </si>
-  <si>
-    <t>(Refer Stress Strain Curve Definitions Manual provided in SUPPORT Folder)</t>
-  </si>
-  <si>
-    <t>Concrete Curve Selection</t>
-  </si>
-  <si>
-    <t>Exponent (ɳ)</t>
-  </si>
-  <si>
-    <t>Reinf. Steel Curve Selection</t>
-  </si>
-  <si>
-    <t>1.  In case of Custom Curve, Max Strain value provided in the stress-strain curve of Concrete will be used as the Ultimate/limiting strain in Section Analysis.</t>
-  </si>
-  <si>
-    <t>&lt;=1, OK</t>
-  </si>
-  <si>
-    <r>
-      <t>x 10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-3</t>
-    </r>
-  </si>
-  <si>
-    <t>Prestress Steel Curve Selection</t>
-  </si>
-  <si>
-    <r>
-      <t>Ratio of f</t>
+      <t>, ROWS CAN BE INSERTED IN ANY FIELD UPTO ANY LIMIT.</t>
+    </r>
+  </si>
+  <si>
+    <t>MATERIAL PROPERTIES</t>
+  </si>
+  <si>
+    <t>(Use this option to Close the program automatically, after it has completed the analysis.)</t>
+  </si>
+  <si>
+    <r>
+      <t>Compressive strength (f</t>
     </r>
     <r>
       <rPr>
@@ -695,7 +856,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>p0.1k</t>
+      <t>ck</t>
     </r>
     <r>
       <rPr>
@@ -703,7 +864,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/f</t>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Material factor (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ</t>
     </r>
     <r>
       <rPr>
@@ -712,21 +886,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>pk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ultimate/Limiting Strain (Ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cu</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -739,7 +899,7 @@
   </si>
   <si>
     <r>
-      <t>Strain at Characteristic Strength (Ɛ</t>
+      <t>Young's modulus (E</t>
     </r>
     <r>
       <rPr>
@@ -761,15 +921,7 @@
   </si>
   <si>
     <r>
-      <t>Effective Lateral Compressive Stress (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>σ</t>
+      <t>Yield strength (F</t>
     </r>
     <r>
       <rPr>
@@ -778,7 +930,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Young's modulus (E</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -790,135 +964,58 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Ulimate/Limiting Strain (Ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ratio of Ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>uk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; Design Strain (Ɛ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ud</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ratio of f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/f</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>yk</t>
-    </r>
-  </si>
-  <si>
-    <t>IRC112:Idealised Bilinear</t>
-  </si>
-  <si>
-    <t>IRC112:Recto-Parabolic</t>
-  </si>
-  <si>
-    <t>Custom Section No (Varying)</t>
-  </si>
-  <si>
-    <t>Lever Arm,z (m)</t>
-  </si>
-  <si>
-    <t>7. In Case of Relative DXF Option, you could avoid providing full path to the DXF file, but only provide the filename or sub-folder name with filename.</t>
-  </si>
-  <si>
-    <t>5. M is Moment about X-Axis, or we can also say, Moment in direction of Y-Axis.</t>
-  </si>
-  <si>
-    <t>1.  Tendon details can be extended upto any number of tendons by simply copying the Tendon detail rows. However, total tendon Nos per section is limited to 100.</t>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\structIQe\STRUCT Assist\Samples\DXFs\Box-Uniaxial.dxf</t>
-  </si>
-  <si>
-    <t>Varying Custom</t>
-  </si>
-  <si>
-    <t>Sec-2</t>
-  </si>
-  <si>
-    <t>Sec-3</t>
-  </si>
-  <si>
-    <t>UNIAXIAL ANALYSIS v5.2</t>
-  </si>
-  <si>
-    <t>Last Analyzed : 10-03-2025 16:39:39</t>
+    <t>Stress-Strain Curve Selection</t>
+  </si>
+  <si>
+    <t>(Refer "Stress Strain Curve Definitions" Manual provided in "Support" Folder)</t>
+  </si>
+  <si>
+    <t>1.  In case of Custom Curve, Max. Strain value provided in the Stress-Strain curve of Concrete will be used as the Ultimate/limiting strain in Section Analysis.</t>
+  </si>
+  <si>
+    <t>2.  Stress-Strain curves must be provided with strain value in increasing order, starting from Zero.</t>
+  </si>
+  <si>
+    <t>Custom Curve - Concrete</t>
+  </si>
+  <si>
+    <t>Custom Curve - Reinforcement Steel</t>
+  </si>
+  <si>
+    <t>Custom Curve - Prestressing Steel</t>
+  </si>
+  <si>
+    <t>SECTION DETAILS</t>
+  </si>
+  <si>
+    <t>LOADING &amp; PRESTRESSING DETAILS</t>
+  </si>
+  <si>
+    <t>3.  Tendon No.s in details below is not used to identify the tendons.</t>
+  </si>
+  <si>
+    <t>1.  Tendon details can be extended upto any number of tendons by simply copying the Tendon detail rows. However, total tendon No.s per section is limited to 100.</t>
+  </si>
+  <si>
+    <t>REINFORCEMENT DETAILS</t>
+  </si>
+  <si>
+    <t>Point No.</t>
+  </si>
+  <si>
+    <t>Custom Section No. (Varying)</t>
+  </si>
+  <si>
+    <t>Lever Arm, z (m)</t>
+  </si>
+  <si>
+    <t>Section-1</t>
+  </si>
+  <si>
+    <t>Section-2</t>
+  </si>
+  <si>
+    <t>Section-3</t>
   </si>
 </sst>
 </file>
@@ -933,7 +1030,7 @@
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="&quot;Section-&quot;0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1231,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1406,7 +1510,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1606,75 +1710,10 @@
     <xf numFmtId="1" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1682,6 +1721,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1730,15 +1843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>833750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>818510</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30856</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141346</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1753,8 +1866,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6834500" y="1009650"/>
-          <a:ext cx="1147450" cy="1126231"/>
+          <a:off x="6994520" y="1076325"/>
+          <a:ext cx="1212220" cy="1006216"/>
           <a:chOff x="6712918" y="588994"/>
           <a:chExt cx="1002336" cy="1183815"/>
         </a:xfrm>
@@ -2268,24 +2381,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z227"/>
+  <dimension ref="A1:Z223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P193" sqref="P193"/>
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="8" customWidth="1"/>
-    <col min="12" max="26" width="13.5703125" style="8" customWidth="1"/>
-    <col min="27" max="28" width="13.5703125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="8" customWidth="1"/>
+    <col min="12" max="26" width="13.5546875" style="8" customWidth="1"/>
+    <col min="27" max="28" width="13.5546875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2298,22 +2411,22 @@
       <c r="J1" s="42"/>
       <c r="K1" s="43"/>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="B2" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -2324,13 +2437,13 @@
       <c r="J3" s="23"/>
       <c r="K3" s="45"/>
       <c r="L3" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -2345,23 +2458,23 @@
       <c r="Y3" s="23"/>
       <c r="Z3" s="23"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="F4" s="23"/>
+      <c r="H4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="45"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -2379,7 +2492,7 @@
       <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="2" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -2405,668 +2518,710 @@
       <c r="Y5" s="23"/>
       <c r="Z5" s="23"/>
     </row>
-    <row r="6" spans="1:26" s="23" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="23" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="24">
+        <v>500</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:26" s="23" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="F7" s="25"/>
       <c r="K7" s="45"/>
     </row>
-    <row r="8" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C8" s="24">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="26"/>
       <c r="K8" s="45"/>
     </row>
-    <row r="9" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="24">
         <v>1000</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="26"/>
+      <c r="E9" s="4"/>
       <c r="K9" s="45"/>
     </row>
-    <row r="10" spans="1:26" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C10" s="24">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="K10" s="45"/>
     </row>
-    <row r="11" spans="1:26" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="24">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:26" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="K12" s="45"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-    </row>
-    <row r="13" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
-      <c r="B13" s="36" t="s">
-        <v>65</v>
+      <c r="B13" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:26" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="B14" s="34" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="K14" s="45"/>
     </row>
-    <row r="15" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
       <c r="B15" s="34" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="K15" s="45"/>
     </row>
-    <row r="16" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="34" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="34" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="K17" s="45"/>
     </row>
-    <row r="18" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="34" t="s">
-        <v>132</v>
-      </c>
+    <row r="18" spans="1:26" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="35"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:26" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="35"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-    </row>
-    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="87" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="1:26" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+    </row>
+    <row r="21" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
+      <c r="B21" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="39"/>
-    </row>
-    <row r="21" spans="1:26" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-    </row>
-    <row r="22" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
-      <c r="B22" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="19" t="s">
+      <c r="B22" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="47"/>
+      <c r="B23" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:26" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:26" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="54" t="s">
-        <v>43</v>
-      </c>
       <c r="F24" s="23" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="K26" s="48"/>
-    </row>
-    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="K25" s="48"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="39"/>
+    </row>
+    <row r="27" spans="1:26" s="123" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="119"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+    </row>
+    <row r="28" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="9"/>
       <c r="K28" s="48"/>
     </row>
-    <row r="29" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="8" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E29" s="14">
         <v>45</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="8" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E30" s="14">
         <v>1.5</v>
       </c>
       <c r="K30" s="48"/>
     </row>
-    <row r="31" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E31" s="32">
         <v>32500</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="E32" s="20"/>
       <c r="K32" s="48"/>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="20"/>
       <c r="K33" s="48"/>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E34" s="14">
         <v>500</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K34" s="48"/>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="8" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E35" s="14">
         <v>1.1499999999999999</v>
       </c>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E36" s="14">
         <v>200000</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K36" s="48"/>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="E37" s="27"/>
       <c r="K37" s="48"/>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E38" s="20"/>
       <c r="K38" s="48"/>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E39" s="14">
         <v>1860</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E40" s="14">
         <v>1.1499999999999999</v>
       </c>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="8" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E41" s="14">
         <v>195000</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="K42" s="48"/>
     </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
+      <c r="B43" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
       <c r="K43" s="39"/>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="K46" s="48"/>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>127</v>
+      <c r="B47" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="115"/>
+      <c r="G47" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="115"/>
+      <c r="I47" s="116" t="s">
+        <v>103</v>
       </c>
       <c r="K47" s="48"/>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
-      <c r="B48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="14">
+      <c r="B48" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="117">
         <v>3.5</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="14">
+      <c r="F48" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="115"/>
+      <c r="I48" s="117">
         <v>50</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" s="8" customFormat="1" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
-      <c r="B49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="B49" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="117">
         <v>2</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" s="14">
+      <c r="F49" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="115"/>
+      <c r="I49" s="117">
         <v>0.9</v>
       </c>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
-      <c r="B50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="B50" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="117">
         <v>2</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" s="14">
+      <c r="F50" s="115"/>
+      <c r="G50" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="115"/>
+      <c r="I50" s="117">
         <v>1</v>
       </c>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
-      <c r="B51" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="B51" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="117">
         <v>0</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="F51" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="K52" s="48"/>
     </row>
-    <row r="53" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="20" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" s="8" customFormat="1" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="8" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E54" s="14">
         <v>10</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="K54" s="48"/>
     </row>
-    <row r="55" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E55" s="14">
         <v>0.9</v>
       </c>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E56" s="14">
         <v>0.87</v>
       </c>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="K57" s="48"/>
     </row>
-    <row r="58" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" s="48"/>
     </row>
-    <row r="59" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="38" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K59" s="48"/>
     </row>
-    <row r="60" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="38" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="K60" s="48"/>
     </row>
-    <row r="61" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="K61" s="48"/>
     </row>
-    <row r="62" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="20" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:22" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="13">
         <v>1</v>
@@ -3104,7 +3259,7 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
     </row>
-    <row r="65" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="13">
         <v>2</v>
@@ -3145,7 +3300,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
     </row>
-    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="13">
         <v>3</v>
@@ -3186,7 +3341,7 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
     </row>
-    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="13">
         <v>4</v>
@@ -3228,7 +3383,7 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
     </row>
-    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="13">
         <v>5</v>
@@ -3269,7 +3424,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
     </row>
-    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="13">
         <v>6</v>
@@ -3299,7 +3454,7 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
     </row>
-    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="13">
         <v>7</v>
@@ -3330,7 +3485,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
     </row>
-    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="13">
         <v>8</v>
@@ -3361,7 +3516,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
     </row>
-    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="13">
         <v>9</v>
@@ -3392,7 +3547,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
     </row>
-    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="13">
         <v>10</v>
@@ -3422,7 +3577,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
     </row>
-    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="13">
         <v>11</v>
@@ -3452,7 +3607,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
     </row>
-    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="13">
         <v>12</v>
@@ -3482,7 +3637,7 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
     </row>
-    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="13">
         <v>13</v>
@@ -3512,7 +3667,7 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
     </row>
-    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="13">
         <v>14</v>
@@ -3542,7 +3697,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
     </row>
-    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="13">
         <v>15</v>
@@ -3572,7 +3727,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
     </row>
-    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="13">
         <v>16</v>
@@ -3602,7 +3757,7 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
     </row>
-    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="13">
         <v>17</v>
@@ -3632,7 +3787,7 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
     </row>
-    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="13">
         <v>18</v>
@@ -3662,7 +3817,7 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
     </row>
-    <row r="82" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="13">
         <v>19</v>
@@ -3692,7 +3847,7 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
     </row>
-    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="13">
         <v>20</v>
@@ -3722,7 +3877,7 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
     </row>
-    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="13">
         <v>21</v>
@@ -3751,7 +3906,7 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
     </row>
-    <row r="85" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="13"/>
       <c r="C85" s="10"/>
@@ -3771,7 +3926,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="E86" s="9"/>
       <c r="K86" s="48"/>
@@ -3787,7 +3942,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="E87" s="9"/>
       <c r="K87" s="48"/>
@@ -3803,10 +3958,10 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="20" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C88" s="8"/>
       <c r="K88" s="48"/>
@@ -3822,16 +3977,16 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K89" s="48"/>
       <c r="O89" s="4"/>
@@ -3846,7 +4001,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="13">
         <v>1</v>
@@ -3870,7 +4025,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="13">
         <v>2</v>
@@ -3896,7 +4051,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="13">
         <v>3</v>
@@ -3922,7 +4077,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="13">
         <v>4</v>
@@ -3947,7 +4102,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="13"/>
       <c r="C94" s="21"/>
@@ -3965,1463 +4120,1443 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="18"/>
       <c r="K95" s="48"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
-      <c r="E96" s="9"/>
-      <c r="K96" s="48"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
+    </row>
+    <row r="96" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="94"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="94"/>
+      <c r="I96" s="94"/>
+      <c r="J96" s="94"/>
+      <c r="K96" s="39"/>
+    </row>
+    <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
       <c r="K97" s="48"/>
     </row>
-    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="87"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="87"/>
-      <c r="F98" s="87"/>
-      <c r="G98" s="87"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="87"/>
-      <c r="J98" s="87"/>
-      <c r="K98" s="39"/>
-    </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="48"/>
+    </row>
+    <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
+      <c r="B99" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="K99" s="48"/>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
-      <c r="B100" s="37" t="s">
-        <v>5</v>
+      <c r="B100" s="38" t="s">
+        <v>22</v>
       </c>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K101" s="48"/>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="38" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="K102" s="48"/>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="38" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="38" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="K105" s="48"/>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="38" t="s">
-        <v>102</v>
-      </c>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="38" t="s">
-        <v>131</v>
+      <c r="B107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="K107" s="48"/>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="K108" s="48"/>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
-      <c r="B109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>135</v>
-      </c>
+      <c r="B109" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" s="98"/>
+      <c r="G109" s="98"/>
+      <c r="H109" s="98"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
       <c r="K109" s="48"/>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="K110" s="48"/>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
-      <c r="B111" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" s="91" t="s">
+      <c r="B111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="48"/>
+    </row>
+    <row r="112" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K112" s="48"/>
+    </row>
+    <row r="113" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K113" s="48"/>
+    </row>
+    <row r="114" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="K114" s="48"/>
+    </row>
+    <row r="115" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="K115" s="48"/>
+    </row>
+    <row r="116" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="80">
+        <v>1</v>
+      </c>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="80">
+        <f>B116+1</f>
+        <v>2</v>
+      </c>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="80">
+        <f>E116+1</f>
+        <v>3</v>
+      </c>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="48"/>
+    </row>
+    <row r="117" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="91"/>
-      <c r="I111" s="91"/>
-      <c r="J111" s="91"/>
-      <c r="K111" s="48"/>
-    </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
-      <c r="K112" s="48"/>
-    </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K113" s="48"/>
-    </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="11"/>
-      <c r="B114" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K114" s="48"/>
-    </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="11"/>
-      <c r="B115" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K115" s="48"/>
-    </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
-      <c r="K116" s="48"/>
-    </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
-      <c r="B117" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
+      <c r="C117" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="K117" s="48"/>
     </row>
-    <row r="118" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
-      <c r="B118" s="80">
+      <c r="B118" s="13">
         <v>1</v>
       </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="80">
-        <f>B118+1</f>
+      <c r="C118" s="86">
+        <v>0</v>
+      </c>
+      <c r="D118" s="86">
+        <v>-90</v>
+      </c>
+      <c r="E118" s="13">
+        <v>1</v>
+      </c>
+      <c r="F118" s="86">
+        <v>0</v>
+      </c>
+      <c r="G118" s="86">
+        <v>-90</v>
+      </c>
+      <c r="H118" s="13">
+        <v>1</v>
+      </c>
+      <c r="I118" s="86">
+        <v>0</v>
+      </c>
+      <c r="J118" s="86">
+        <v>-90</v>
+      </c>
+      <c r="K118" s="48"/>
+    </row>
+    <row r="119" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="13">
         <v>2</v>
       </c>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="80">
-        <f>E118+1</f>
-        <v>3</v>
-      </c>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="48"/>
-    </row>
-    <row r="119" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-      <c r="B119" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>37</v>
+      <c r="C119" s="86">
+        <v>400</v>
+      </c>
+      <c r="D119" s="86">
+        <v>-90</v>
+      </c>
+      <c r="E119" s="13">
+        <v>2</v>
+      </c>
+      <c r="F119" s="86">
+        <v>400</v>
+      </c>
+      <c r="G119" s="86">
+        <v>-90</v>
+      </c>
+      <c r="H119" s="13">
+        <v>2</v>
+      </c>
+      <c r="I119" s="86">
+        <v>400</v>
+      </c>
+      <c r="J119" s="86">
+        <v>-90</v>
       </c>
       <c r="K119" s="48"/>
     </row>
-    <row r="120" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" s="86">
+        <v>4000</v>
+      </c>
+      <c r="D120" s="86">
         <v>0</v>
       </c>
-      <c r="D120" s="86">
-        <v>-90</v>
-      </c>
       <c r="E120" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120" s="86">
+        <v>4000</v>
+      </c>
+      <c r="G120" s="86">
         <v>0</v>
       </c>
-      <c r="G120" s="86">
-        <v>-90</v>
-      </c>
       <c r="H120" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120" s="86">
+        <v>4000</v>
+      </c>
+      <c r="J120" s="86">
         <v>0</v>
       </c>
-      <c r="J120" s="86">
-        <v>-90</v>
-      </c>
       <c r="K120" s="48"/>
     </row>
-    <row r="121" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" s="86">
-        <v>400</v>
+        <v>4400</v>
       </c>
       <c r="D121" s="86">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E121" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F121" s="86">
-        <v>400</v>
+        <v>4400</v>
       </c>
       <c r="G121" s="86">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="H121" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I121" s="86">
-        <v>400</v>
+        <v>4400</v>
       </c>
       <c r="J121" s="86">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="K121" s="48"/>
     </row>
-    <row r="122" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C122" s="86">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="D122" s="86">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E122" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F122" s="86">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="G122" s="86">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H122" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I122" s="86">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="J122" s="86">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K122" s="48"/>
     </row>
-    <row r="123" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C123" s="86">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="D123" s="86">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E123" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F123" s="86">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="G123" s="86">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H123" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I123" s="86">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="J123" s="86">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K123" s="48"/>
     </row>
-    <row r="124" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" s="86">
-        <v>4400</v>
+        <v>3350</v>
       </c>
       <c r="D124" s="86">
-        <v>-200</v>
+        <v>-216.25</v>
       </c>
       <c r="E124" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F124" s="86">
-        <v>4400</v>
+        <v>3350</v>
       </c>
       <c r="G124" s="86">
-        <v>-200</v>
+        <v>-216.25</v>
       </c>
       <c r="H124" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I124" s="86">
-        <v>4400</v>
+        <v>3350</v>
       </c>
       <c r="J124" s="86">
-        <v>-200</v>
+        <v>-216.25</v>
       </c>
       <c r="K124" s="48"/>
     </row>
-    <row r="125" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" s="86">
-        <v>4000</v>
+        <v>2685.7631999999871</v>
       </c>
       <c r="D125" s="86">
-        <v>-200</v>
+        <v>-377.91140000000087</v>
       </c>
       <c r="E125" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F125" s="86">
-        <v>4000</v>
+        <v>2685.7631999999871</v>
       </c>
       <c r="G125" s="86">
-        <v>-200</v>
+        <v>-377.91140000000087</v>
       </c>
       <c r="H125" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I125" s="86">
-        <v>4000</v>
+        <v>2685.7631999999871</v>
       </c>
       <c r="J125" s="86">
-        <v>-200</v>
+        <v>-377.91140000000087</v>
       </c>
       <c r="K125" s="48"/>
     </row>
-    <row r="126" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C126" s="86">
-        <v>3350</v>
+        <v>2486.7772000000118</v>
       </c>
       <c r="D126" s="86">
-        <v>-216.25</v>
+        <v>-538.1252999999997</v>
       </c>
       <c r="E126" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F126" s="86">
-        <v>3350</v>
+        <v>2486.7772000000118</v>
       </c>
       <c r="G126" s="86">
-        <v>-216.25</v>
+        <v>-538.1252999999997</v>
       </c>
       <c r="H126" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I126" s="86">
-        <v>3350</v>
+        <v>2486.7772000000118</v>
       </c>
       <c r="J126" s="86">
-        <v>-216.25</v>
+        <v>-538.1252999999997</v>
       </c>
       <c r="K126" s="48"/>
     </row>
-    <row r="127" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C127" s="86">
-        <v>2685.7631999999871</v>
+        <v>1725</v>
       </c>
       <c r="D127" s="86">
-        <v>-377.91140000000087</v>
+        <v>-2100</v>
       </c>
       <c r="E127" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F127" s="86">
-        <v>2685.7631999999871</v>
+        <v>1725</v>
       </c>
       <c r="G127" s="86">
-        <v>-377.91140000000087</v>
+        <v>-2100</v>
       </c>
       <c r="H127" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I127" s="86">
-        <v>2685.7631999999871</v>
+        <v>1725</v>
       </c>
       <c r="J127" s="86">
-        <v>-377.91140000000087</v>
+        <v>-2100</v>
       </c>
       <c r="K127" s="48"/>
     </row>
-    <row r="128" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C128" s="86">
-        <v>2486.7772000000118</v>
+        <v>-1725</v>
       </c>
       <c r="D128" s="86">
-        <v>-538.1252999999997</v>
+        <v>-2100</v>
       </c>
       <c r="E128" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F128" s="86">
-        <v>2486.7772000000118</v>
+        <v>-1725</v>
       </c>
       <c r="G128" s="86">
-        <v>-538.1252999999997</v>
+        <v>-2100</v>
       </c>
       <c r="H128" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I128" s="86">
-        <v>2486.7772000000118</v>
+        <v>-1725</v>
       </c>
       <c r="J128" s="86">
-        <v>-538.1252999999997</v>
+        <v>-2100</v>
       </c>
       <c r="K128" s="48"/>
     </row>
-    <row r="129" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C129" s="86">
-        <v>1725</v>
+        <v>-2486.7771000000066</v>
       </c>
       <c r="D129" s="86">
-        <v>-2100</v>
+        <v>-538.1252999999997</v>
       </c>
       <c r="E129" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F129" s="86">
-        <v>1725</v>
+        <v>-2486.7771000000066</v>
       </c>
       <c r="G129" s="86">
-        <v>-2100</v>
+        <v>-538.1252999999997</v>
       </c>
       <c r="H129" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I129" s="86">
-        <v>1725</v>
+        <v>-2486.7771000000066</v>
       </c>
       <c r="J129" s="86">
-        <v>-2100</v>
+        <v>-538.1252999999997</v>
       </c>
       <c r="K129" s="48"/>
     </row>
-    <row r="130" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C130" s="86">
-        <v>-1725</v>
+        <v>-2685.7630999999815</v>
       </c>
       <c r="D130" s="86">
-        <v>-2100</v>
+        <v>-377.91140000000087</v>
       </c>
       <c r="E130" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F130" s="86">
-        <v>-1725</v>
+        <v>-2685.7630999999815</v>
       </c>
       <c r="G130" s="86">
-        <v>-2100</v>
+        <v>-377.91140000000087</v>
       </c>
       <c r="H130" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I130" s="86">
-        <v>-1725</v>
+        <v>-2685.7630999999815</v>
       </c>
       <c r="J130" s="86">
-        <v>-2100</v>
+        <v>-377.91140000000087</v>
       </c>
       <c r="K130" s="48"/>
     </row>
-    <row r="131" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C131" s="86">
-        <v>-2486.7771000000066</v>
+        <v>-3350</v>
       </c>
       <c r="D131" s="86">
-        <v>-538.1252999999997</v>
+        <v>-216.25</v>
       </c>
       <c r="E131" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F131" s="86">
-        <v>-2486.7771000000066</v>
+        <v>-3350</v>
       </c>
       <c r="G131" s="86">
-        <v>-538.1252999999997</v>
+        <v>-216.25</v>
       </c>
       <c r="H131" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I131" s="86">
-        <v>-2486.7771000000066</v>
+        <v>-3350</v>
       </c>
       <c r="J131" s="86">
-        <v>-538.1252999999997</v>
+        <v>-216.25</v>
       </c>
       <c r="K131" s="48"/>
     </row>
-    <row r="132" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C132" s="86">
-        <v>-2685.7630999999815</v>
+        <v>-4000</v>
       </c>
       <c r="D132" s="86">
-        <v>-377.91140000000087</v>
+        <v>-200</v>
       </c>
       <c r="E132" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F132" s="86">
-        <v>-2685.7630999999815</v>
+        <v>-4000</v>
       </c>
       <c r="G132" s="86">
-        <v>-377.91140000000087</v>
+        <v>-200</v>
       </c>
       <c r="H132" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I132" s="86">
-        <v>-2685.7630999999815</v>
+        <v>-4000</v>
       </c>
       <c r="J132" s="86">
-        <v>-377.91140000000087</v>
+        <v>-200</v>
       </c>
       <c r="K132" s="48"/>
     </row>
-    <row r="133" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C133" s="86">
-        <v>-3350</v>
+        <v>-4400</v>
       </c>
       <c r="D133" s="86">
-        <v>-216.25</v>
+        <v>-200</v>
       </c>
       <c r="E133" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F133" s="86">
-        <v>-3350</v>
+        <v>-4400</v>
       </c>
       <c r="G133" s="86">
-        <v>-216.25</v>
+        <v>-200</v>
       </c>
       <c r="H133" s="13">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I133" s="86">
-        <v>-3350</v>
+        <v>-4400</v>
       </c>
       <c r="J133" s="86">
-        <v>-216.25</v>
+        <v>-200</v>
       </c>
       <c r="K133" s="48"/>
     </row>
-    <row r="134" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C134" s="86">
-        <v>-4000</v>
+        <v>-4400</v>
       </c>
       <c r="D134" s="86">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E134" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F134" s="86">
-        <v>-4000</v>
+        <v>-4400</v>
       </c>
       <c r="G134" s="86">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H134" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I134" s="86">
-        <v>-4000</v>
+        <v>-4400</v>
       </c>
       <c r="J134" s="86">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K134" s="48"/>
     </row>
-    <row r="135" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C135" s="86">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="D135" s="86">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E135" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F135" s="86">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="G135" s="86">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H135" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I135" s="86">
-        <v>-4400</v>
+        <v>-4000</v>
       </c>
       <c r="J135" s="86">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K135" s="48"/>
     </row>
-    <row r="136" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C136" s="86">
-        <v>-4400</v>
+        <v>-399.99999999999949</v>
       </c>
       <c r="D136" s="86">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E136" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F136" s="86">
-        <v>-4400</v>
+        <v>-399.99999999999949</v>
       </c>
       <c r="G136" s="86">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="H136" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I136" s="86">
-        <v>-4400</v>
+        <v>-399.99999999999949</v>
       </c>
       <c r="J136" s="86">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="K136" s="48"/>
     </row>
-    <row r="137" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C137" s="86">
-        <v>-4000</v>
+        <v>0</v>
       </c>
       <c r="D137" s="86">
+        <v>-90</v>
+      </c>
+      <c r="E137" s="13">
+        <v>20</v>
+      </c>
+      <c r="F137" s="86">
         <v>0</v>
       </c>
-      <c r="E137" s="13">
-        <v>18</v>
-      </c>
-      <c r="F137" s="86">
-        <v>-4000</v>
-      </c>
       <c r="G137" s="86">
+        <v>-90</v>
+      </c>
+      <c r="H137" s="13">
+        <v>20</v>
+      </c>
+      <c r="I137" s="86">
         <v>0</v>
       </c>
-      <c r="H137" s="13">
-        <v>18</v>
-      </c>
-      <c r="I137" s="86">
-        <v>-4000</v>
-      </c>
       <c r="J137" s="86">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C138" s="86">
-        <v>-399.99999999999949</v>
+        <v>0</v>
       </c>
       <c r="D138" s="86">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="E138" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F138" s="86">
-        <v>-399.99999999999949</v>
+        <v>0</v>
       </c>
       <c r="G138" s="86">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="H138" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I138" s="86">
-        <v>-399.99999999999949</v>
+        <v>0</v>
       </c>
       <c r="J138" s="86">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="K138" s="48"/>
     </row>
-    <row r="139" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C139" s="86">
-        <v>0</v>
+        <v>-402.5</v>
       </c>
       <c r="D139" s="86">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="E139" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F139" s="86">
-        <v>0</v>
+        <v>-402.5</v>
       </c>
       <c r="G139" s="86">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="H139" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I139" s="86">
-        <v>0</v>
+        <v>-402.5</v>
       </c>
       <c r="J139" s="86">
-        <v>-90</v>
+        <v>-290</v>
       </c>
       <c r="K139" s="48"/>
     </row>
-    <row r="140" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C140" s="86">
-        <v>0</v>
+        <v>-1451.8999999999999</v>
       </c>
       <c r="D140" s="86">
-        <v>-290</v>
+        <v>-263.8</v>
       </c>
       <c r="E140" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F140" s="86">
-        <v>0</v>
+        <v>-1451.8999999999999</v>
       </c>
       <c r="G140" s="86">
-        <v>-290</v>
+        <v>-263.8</v>
       </c>
       <c r="H140" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I140" s="86">
-        <v>0</v>
+        <v>-1451.8999999999999</v>
       </c>
       <c r="J140" s="86">
-        <v>-290</v>
+        <v>-263.8</v>
       </c>
       <c r="K140" s="48"/>
     </row>
-    <row r="141" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C141" s="86">
-        <v>-402.5</v>
+        <v>-2025.9</v>
       </c>
       <c r="D141" s="86">
-        <v>-290</v>
+        <v>-397</v>
       </c>
       <c r="E141" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F141" s="86">
-        <v>-402.5</v>
+        <v>-2025.9</v>
       </c>
       <c r="G141" s="86">
-        <v>-290</v>
+        <v>-397</v>
       </c>
       <c r="H141" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I141" s="86">
-        <v>-402.5</v>
+        <v>-2025.9</v>
       </c>
       <c r="J141" s="86">
-        <v>-290</v>
+        <v>-397</v>
       </c>
       <c r="K141" s="48"/>
     </row>
-    <row r="142" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C142" s="86">
-        <v>-1451.8999999999999</v>
+        <v>-2095.2000000000003</v>
       </c>
       <c r="D142" s="86">
-        <v>-263.8</v>
+        <v>-542.6</v>
       </c>
       <c r="E142" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F142" s="86">
-        <v>-1451.8999999999999</v>
+        <v>-2095.2000000000003</v>
       </c>
       <c r="G142" s="86">
-        <v>-263.8</v>
+        <v>-542.6</v>
       </c>
       <c r="H142" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I142" s="86">
-        <v>-1451.8999999999999</v>
+        <v>-2095.2000000000003</v>
       </c>
       <c r="J142" s="86">
-        <v>-263.8</v>
+        <v>-542.6</v>
       </c>
       <c r="K142" s="48"/>
     </row>
-    <row r="143" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C143" s="86">
-        <v>-2025.9</v>
+        <v>-1579.5</v>
       </c>
       <c r="D143" s="86">
-        <v>-397</v>
+        <v>-1600</v>
       </c>
       <c r="E143" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F143" s="86">
-        <v>-2025.9</v>
+        <v>-1579.5</v>
       </c>
       <c r="G143" s="86">
-        <v>-397</v>
+        <v>-1600</v>
       </c>
       <c r="H143" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I143" s="86">
-        <v>-2025.9</v>
+        <v>-1579.5</v>
       </c>
       <c r="J143" s="86">
-        <v>-397</v>
+        <v>-1600</v>
       </c>
       <c r="K143" s="48"/>
     </row>
-    <row r="144" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C144" s="86">
-        <v>-2095.2000000000003</v>
+        <v>-679.5</v>
       </c>
       <c r="D144" s="86">
-        <v>-542.6</v>
+        <v>-1900</v>
       </c>
       <c r="E144" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F144" s="86">
-        <v>-2095.2000000000003</v>
+        <v>-679.5</v>
       </c>
       <c r="G144" s="86">
-        <v>-542.6</v>
+        <v>-1900</v>
       </c>
       <c r="H144" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I144" s="86">
-        <v>-2095.2000000000003</v>
+        <v>-679.5</v>
       </c>
       <c r="J144" s="86">
-        <v>-542.6</v>
+        <v>-1900</v>
       </c>
       <c r="K144" s="48"/>
     </row>
-    <row r="145" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C145" s="86">
-        <v>-1579.5</v>
+        <v>679.5</v>
       </c>
       <c r="D145" s="86">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="E145" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F145" s="86">
-        <v>-1579.5</v>
+        <v>679.5</v>
       </c>
       <c r="G145" s="86">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="H145" s="13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I145" s="86">
-        <v>-1579.5</v>
+        <v>679.5</v>
       </c>
       <c r="J145" s="86">
-        <v>-1600</v>
+        <v>-1900</v>
       </c>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C146" s="86">
-        <v>-679.5</v>
+        <v>1579.5</v>
       </c>
       <c r="D146" s="86">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="E146" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F146" s="86">
-        <v>-679.5</v>
+        <v>1579.5</v>
       </c>
       <c r="G146" s="86">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="H146" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I146" s="86">
-        <v>-679.5</v>
+        <v>1579.5</v>
       </c>
       <c r="J146" s="86">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="K146" s="48"/>
     </row>
-    <row r="147" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C147" s="86">
-        <v>679.5</v>
+        <v>2095.2000000000003</v>
       </c>
       <c r="D147" s="86">
-        <v>-1900</v>
+        <v>-542.6</v>
       </c>
       <c r="E147" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F147" s="86">
-        <v>679.5</v>
+        <v>2095.2000000000003</v>
       </c>
       <c r="G147" s="86">
-        <v>-1900</v>
+        <v>-542.6</v>
       </c>
       <c r="H147" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I147" s="86">
-        <v>679.5</v>
+        <v>2095.2000000000003</v>
       </c>
       <c r="J147" s="86">
-        <v>-1900</v>
+        <v>-542.6</v>
       </c>
       <c r="K147" s="48"/>
     </row>
-    <row r="148" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C148" s="86">
-        <v>1579.5</v>
+        <v>2025.9</v>
       </c>
       <c r="D148" s="86">
-        <v>-1600</v>
+        <v>-397</v>
       </c>
       <c r="E148" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F148" s="86">
-        <v>1579.5</v>
+        <v>2025.9</v>
       </c>
       <c r="G148" s="86">
-        <v>-1600</v>
+        <v>-397</v>
       </c>
       <c r="H148" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I148" s="86">
-        <v>1579.5</v>
+        <v>2025.9</v>
       </c>
       <c r="J148" s="86">
-        <v>-1600</v>
+        <v>-397</v>
       </c>
       <c r="K148" s="48"/>
     </row>
-    <row r="149" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C149" s="86">
-        <v>2095.2000000000003</v>
+        <v>1451.8999999999999</v>
       </c>
       <c r="D149" s="86">
-        <v>-542.6</v>
+        <v>-263.8</v>
       </c>
       <c r="E149" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F149" s="86">
-        <v>2095.2000000000003</v>
+        <v>1451.8999999999999</v>
       </c>
       <c r="G149" s="86">
-        <v>-542.6</v>
+        <v>-263.8</v>
       </c>
       <c r="H149" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I149" s="86">
-        <v>2095.2000000000003</v>
+        <v>1451.8999999999999</v>
       </c>
       <c r="J149" s="86">
-        <v>-542.6</v>
+        <v>-263.8</v>
       </c>
       <c r="K149" s="48"/>
     </row>
-    <row r="150" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C150" s="86">
-        <v>2025.9</v>
+        <v>402.5</v>
       </c>
       <c r="D150" s="86">
-        <v>-397</v>
+        <v>-290</v>
       </c>
       <c r="E150" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F150" s="86">
-        <v>2025.9</v>
+        <v>402.5</v>
       </c>
       <c r="G150" s="86">
-        <v>-397</v>
+        <v>-290</v>
       </c>
       <c r="H150" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I150" s="86">
-        <v>2025.9</v>
+        <v>402.5</v>
       </c>
       <c r="J150" s="86">
-        <v>-397</v>
+        <v>-290</v>
       </c>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C151" s="86">
-        <v>1451.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="D151" s="86">
-        <v>-263.8</v>
+        <v>-290</v>
       </c>
       <c r="E151" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F151" s="86">
-        <v>1451.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="G151" s="86">
-        <v>-263.8</v>
+        <v>-290</v>
       </c>
       <c r="H151" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I151" s="86">
-        <v>1451.8999999999999</v>
+        <v>0</v>
       </c>
       <c r="J151" s="86">
-        <v>-263.8</v>
+        <v>-290</v>
       </c>
       <c r="K151" s="48"/>
     </row>
-    <row r="152" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C152" s="86">
-        <v>402.5</v>
+        <v>0</v>
       </c>
       <c r="D152" s="86">
-        <v>-290</v>
+        <v>-90</v>
       </c>
       <c r="E152" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F152" s="86">
-        <v>402.5</v>
+        <v>0</v>
       </c>
       <c r="G152" s="86">
-        <v>-290</v>
+        <v>-90</v>
       </c>
       <c r="H152" s="13">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I152" s="86">
-        <v>402.5</v>
+        <v>0</v>
       </c>
       <c r="J152" s="86">
-        <v>-290</v>
+        <v>-90</v>
       </c>
       <c r="K152" s="48"/>
     </row>
-    <row r="153" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
-      <c r="B153" s="13">
-        <v>34</v>
-      </c>
-      <c r="C153" s="86">
-        <v>0</v>
-      </c>
-      <c r="D153" s="86">
-        <v>-290</v>
-      </c>
-      <c r="E153" s="13">
-        <v>34</v>
-      </c>
-      <c r="F153" s="86">
-        <v>0</v>
-      </c>
-      <c r="G153" s="86">
-        <v>-290</v>
-      </c>
-      <c r="H153" s="13">
-        <v>34</v>
-      </c>
-      <c r="I153" s="86">
-        <v>0</v>
-      </c>
-      <c r="J153" s="86">
-        <v>-290</v>
-      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="57"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
-      <c r="B154" s="13">
-        <v>35</v>
-      </c>
-      <c r="C154" s="86">
-        <v>0</v>
-      </c>
-      <c r="D154" s="86">
-        <v>-90</v>
-      </c>
-      <c r="E154" s="13">
-        <v>35</v>
-      </c>
-      <c r="F154" s="86">
-        <v>0</v>
-      </c>
-      <c r="G154" s="86">
-        <v>-90</v>
-      </c>
-      <c r="H154" s="13">
-        <v>35</v>
-      </c>
-      <c r="I154" s="86">
-        <v>0</v>
-      </c>
-      <c r="J154" s="86">
-        <v>-90</v>
-      </c>
       <c r="K154" s="48"/>
     </row>
-    <row r="155" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="48"/>
-    </row>
-    <row r="156" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="57"/>
+    <row r="155" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C155" s="94"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="94"/>
+      <c r="F155" s="94"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="94"/>
+      <c r="J155" s="94"/>
+      <c r="K155" s="39"/>
+    </row>
+    <row r="156" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="E156" s="9"/>
       <c r="K156" s="48"/>
     </row>
-    <row r="157" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="57"/>
-      <c r="J157" s="57"/>
+    <row r="157" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="K157" s="48"/>
     </row>
-    <row r="158" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
+    <row r="158" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="K158" s="48"/>
     </row>
-    <row r="159" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C159" s="87"/>
-      <c r="D159" s="87"/>
-      <c r="E159" s="87"/>
-      <c r="F159" s="87"/>
-      <c r="G159" s="87"/>
-      <c r="H159" s="87"/>
-      <c r="I159" s="87"/>
-      <c r="J159" s="87"/>
-      <c r="K159" s="39"/>
-    </row>
-    <row r="160" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K159" s="48"/>
+    </row>
+    <row r="160" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
-      <c r="E160" s="9"/>
+      <c r="B160" s="38"/>
       <c r="K160" s="48"/>
     </row>
-    <row r="161" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
-      <c r="B161" s="37" t="s">
-        <v>5</v>
+      <c r="B161" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="E161" s="28" t="s">
+        <v>8</v>
       </c>
       <c r="K161" s="48"/>
     </row>
-    <row r="162" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
-      <c r="B162" s="38" t="s">
-        <v>86</v>
-      </c>
+      <c r="E162" s="27"/>
       <c r="K162" s="48"/>
     </row>
-    <row r="163" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="11"/>
-      <c r="B163" s="38" t="s">
-        <v>94</v>
+    <row r="163" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="15"/>
+      <c r="B163" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="K163" s="48"/>
     </row>
-    <row r="164" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="11"/>
-      <c r="B164" s="38"/>
+    <row r="164" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
       <c r="K164" s="48"/>
     </row>
-    <row r="165" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="11"/>
-      <c r="B165" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="E165" s="28" t="s">
-        <v>9</v>
-      </c>
+    <row r="165" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
       <c r="K165" s="48"/>
     </row>
-    <row r="166" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="11"/>
-      <c r="E166" s="27"/>
+    <row r="166" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="15"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
       <c r="K166" s="48"/>
     </row>
-    <row r="167" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
-      <c r="B167" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G167" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
       <c r="K167" s="48"/>
     </row>
-    <row r="168" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5431,8 +5566,8 @@
       <c r="G168" s="18"/>
       <c r="K168" s="48"/>
     </row>
-    <row r="169" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
+    <row r="169" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="18"/>
@@ -5441,265 +5576,234 @@
       <c r="G169" s="18"/>
       <c r="K169" s="48"/>
     </row>
-    <row r="170" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
       <c r="K170" s="48"/>
     </row>
-    <row r="171" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="15"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="K171" s="48"/>
-    </row>
-    <row r="172" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="15"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="K172" s="48"/>
-    </row>
-    <row r="173" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A171" s="5"/>
+      <c r="B171" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="94"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="94"/>
+      <c r="F171" s="94"/>
+      <c r="G171" s="94"/>
+      <c r="H171" s="94"/>
+      <c r="I171" s="94"/>
+      <c r="J171" s="94"/>
+      <c r="K171" s="39"/>
+    </row>
+    <row r="172" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="87"/>
+      <c r="B172" s="42"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="88"/>
+      <c r="F172" s="42"/>
+      <c r="G172" s="42"/>
+      <c r="H172" s="42"/>
+      <c r="I172" s="42"/>
+      <c r="J172" s="42"/>
+      <c r="K172" s="43"/>
+    </row>
+    <row r="173" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
-      <c r="E173" s="27"/>
+      <c r="B173" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="K173" s="48"/>
     </row>
-    <row r="174" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="15"/>
+    <row r="174" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="38" t="s">
+        <v>132</v>
+      </c>
       <c r="K174" s="48"/>
     </row>
-    <row r="175" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C175" s="87"/>
-      <c r="D175" s="87"/>
-      <c r="E175" s="87"/>
-      <c r="F175" s="87"/>
-      <c r="G175" s="87"/>
-      <c r="H175" s="87"/>
-      <c r="I175" s="87"/>
-      <c r="J175" s="87"/>
-      <c r="K175" s="39"/>
-    </row>
-    <row r="176" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="107"/>
-      <c r="B176" s="42"/>
-      <c r="C176" s="42"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="108"/>
-      <c r="F176" s="42"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="42"/>
-      <c r="I176" s="42"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="43"/>
-    </row>
-    <row r="177" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K175" s="48"/>
+    </row>
+    <row r="176" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
+      <c r="B176" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K176" s="48"/>
+    </row>
+    <row r="177" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
-      <c r="B177" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="110"/>
-      <c r="D177" s="110"/>
-      <c r="E177" s="110"/>
-      <c r="F177" s="110"/>
-      <c r="G177" s="110"/>
-      <c r="H177" s="110"/>
-      <c r="I177" s="110"/>
-      <c r="J177" s="110"/>
+      <c r="B177" s="38" t="s">
+        <v>79</v>
+      </c>
       <c r="K177" s="48"/>
     </row>
-    <row r="178" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
-      <c r="B178" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C178" s="110"/>
-      <c r="D178" s="110"/>
-      <c r="E178" s="110"/>
-      <c r="F178" s="110"/>
-      <c r="G178" s="110"/>
-      <c r="H178" s="110"/>
-      <c r="I178" s="110"/>
-      <c r="J178" s="110"/>
+      <c r="B178" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="K178" s="48"/>
     </row>
-    <row r="179" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
-      <c r="B179" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C179" s="110"/>
-      <c r="D179" s="110"/>
-      <c r="E179" s="110"/>
-      <c r="F179" s="110"/>
-      <c r="G179" s="110"/>
-      <c r="H179" s="110"/>
-      <c r="I179" s="110"/>
-      <c r="J179" s="110"/>
+      <c r="B179" s="38"/>
       <c r="K179" s="48"/>
     </row>
-    <row r="180" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
-      <c r="B180" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="C180" s="110"/>
-      <c r="D180" s="110"/>
-      <c r="E180" s="110"/>
-      <c r="F180" s="110"/>
-      <c r="G180" s="110"/>
-      <c r="H180" s="110"/>
-      <c r="I180" s="110"/>
-      <c r="J180" s="110"/>
+      <c r="B180" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="E180" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="K180" s="48"/>
     </row>
-    <row r="181" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
-      <c r="B181" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="C181" s="110"/>
-      <c r="D181" s="110"/>
-      <c r="E181" s="110"/>
-      <c r="F181" s="110"/>
-      <c r="G181" s="110"/>
-      <c r="H181" s="110"/>
-      <c r="I181" s="110"/>
-      <c r="J181" s="110"/>
-      <c r="K181" s="48"/>
-    </row>
-    <row r="182" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="11"/>
-      <c r="B182" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C182" s="110"/>
-      <c r="D182" s="110"/>
-      <c r="E182" s="110"/>
-      <c r="F182" s="110"/>
-      <c r="G182" s="110"/>
-      <c r="H182" s="110"/>
-      <c r="I182" s="110"/>
-      <c r="J182" s="110"/>
-      <c r="K182" s="48"/>
-    </row>
-    <row r="183" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="11"/>
-      <c r="B183" s="111"/>
-      <c r="C183" s="110"/>
-      <c r="D183" s="110"/>
-      <c r="E183" s="110"/>
-      <c r="F183" s="110"/>
-      <c r="G183" s="110"/>
-      <c r="H183" s="110"/>
-      <c r="I183" s="110"/>
-      <c r="J183" s="110"/>
-      <c r="K183" s="48"/>
-    </row>
-    <row r="184" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="11"/>
-      <c r="B184" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C184" s="113"/>
-      <c r="D184" s="110"/>
-      <c r="E184" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F184" s="110"/>
-      <c r="G184" s="110"/>
-      <c r="H184" s="110"/>
-      <c r="I184" s="110"/>
-      <c r="J184" s="110"/>
-      <c r="K184" s="48"/>
-    </row>
-    <row r="185" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="11"/>
-      <c r="B185" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="C185" s="113"/>
-      <c r="D185" s="110"/>
-      <c r="E185" s="28">
+      <c r="B181" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="E181" s="28">
         <f>0.765*SDPBi_fp</f>
         <v>1422.9</v>
       </c>
-      <c r="F185" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="G185" s="110"/>
-      <c r="H185" s="110"/>
-      <c r="I185" s="110"/>
-      <c r="J185" s="110"/>
-      <c r="K185" s="48"/>
-    </row>
-    <row r="186" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="11"/>
-      <c r="B186" s="112"/>
-      <c r="C186" s="113"/>
-      <c r="D186" s="110"/>
-      <c r="E186" s="110"/>
-      <c r="F186" s="110"/>
-      <c r="G186" s="110"/>
-      <c r="H186" s="110"/>
-      <c r="I186" s="110"/>
-      <c r="J186" s="110"/>
-      <c r="K186" s="48"/>
-    </row>
-    <row r="187" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="11"/>
-      <c r="B187" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C187" s="118">
+      <c r="F181" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K181" s="48"/>
+    </row>
+    <row r="182" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="1"/>
+      <c r="K182" s="48"/>
+    </row>
+    <row r="183" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183" s="93">
         <v>1</v>
       </c>
-      <c r="D187" s="59">
-        <f>C187+1</f>
+      <c r="D183" s="59">
+        <f>C183+1</f>
         <v>2</v>
       </c>
-      <c r="E187" s="59">
-        <f>D187+1</f>
+      <c r="E183" s="59">
+        <f>D183+1</f>
         <v>3</v>
       </c>
-      <c r="F187" s="59"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
-      <c r="J187" s="59"/>
-      <c r="K187" s="48"/>
-    </row>
-    <row r="188" spans="1:11" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="11"/>
-      <c r="B188" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C188" s="58" t="str">
-        <f>"Sec-"&amp;C187</f>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="48"/>
+    </row>
+    <row r="184" spans="1:11" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="58" t="str">
+        <f>"Sec-"&amp;C183</f>
         <v>Sec-1</v>
       </c>
-      <c r="D188" s="58" t="str">
-        <f t="shared" ref="D188:E188" si="3">"Sec-"&amp;D187</f>
+      <c r="D184" s="58" t="str">
+        <f t="shared" ref="D184:E184" si="3">"Sec-"&amp;D183</f>
         <v>Sec-2</v>
       </c>
-      <c r="E188" s="58" t="str">
+      <c r="E184" s="58" t="str">
         <f t="shared" si="3"/>
         <v>Sec-3</v>
+      </c>
+      <c r="F184" s="58"/>
+      <c r="G184" s="58"/>
+      <c r="H184" s="58"/>
+      <c r="I184" s="58"/>
+      <c r="J184" s="58"/>
+      <c r="K184" s="48"/>
+    </row>
+    <row r="185" spans="1:11" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C185" s="58"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="58"/>
+      <c r="F185" s="58"/>
+      <c r="G185" s="58"/>
+      <c r="H185" s="58"/>
+      <c r="I185" s="58"/>
+      <c r="J185" s="58"/>
+      <c r="K185" s="48"/>
+    </row>
+    <row r="186" spans="1:11" s="8" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C186" s="58">
+        <v>1</v>
+      </c>
+      <c r="D186" s="58">
+        <v>2</v>
+      </c>
+      <c r="E186" s="58">
+        <v>3</v>
+      </c>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="48"/>
+    </row>
+    <row r="187" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" s="58">
+        <v>0</v>
+      </c>
+      <c r="D187" s="58">
+        <v>0</v>
+      </c>
+      <c r="E187" s="58">
+        <v>0</v>
+      </c>
+      <c r="F187" s="58"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="58"/>
+      <c r="J187" s="58"/>
+      <c r="K187" s="48"/>
+    </row>
+    <row r="188" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C188" s="58">
+        <v>15000</v>
+      </c>
+      <c r="D188" s="58">
+        <v>20000</v>
+      </c>
+      <c r="E188" s="58">
+        <v>25000</v>
       </c>
       <c r="F188" s="58"/>
       <c r="G188" s="58"/>
@@ -5708,169 +5812,176 @@
       <c r="J188" s="58"/>
       <c r="K188" s="48"/>
     </row>
-    <row r="189" spans="1:11" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
-      <c r="B189" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C189" s="58"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="58"/>
-      <c r="F189" s="58"/>
-      <c r="G189" s="58"/>
-      <c r="H189" s="58"/>
-      <c r="I189" s="58"/>
-      <c r="J189" s="58"/>
+      <c r="B189" s="64">
+        <v>1</v>
+      </c>
+      <c r="C189" s="63"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="63"/>
+      <c r="F189" s="63"/>
+      <c r="G189" s="63"/>
+      <c r="H189" s="63"/>
+      <c r="I189" s="63"/>
+      <c r="J189" s="118"/>
       <c r="K189" s="48"/>
     </row>
-    <row r="190" spans="1:11" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
-      <c r="B190" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C190" s="58">
-        <v>1</v>
-      </c>
-      <c r="D190" s="58">
-        <v>2</v>
-      </c>
-      <c r="E190" s="58">
-        <v>3</v>
-      </c>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="48"/>
-    </row>
-    <row r="191" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="11"/>
-      <c r="B191" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C191" s="58">
-        <v>0</v>
-      </c>
-      <c r="D191" s="58">
-        <v>0</v>
-      </c>
-      <c r="E191" s="58">
-        <v>0</v>
-      </c>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="48"/>
-    </row>
-    <row r="192" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="11"/>
-      <c r="B192" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C192" s="58">
-        <v>15000</v>
-      </c>
-      <c r="D192" s="58">
-        <v>20000</v>
-      </c>
-      <c r="E192" s="58">
-        <v>25000</v>
-      </c>
-      <c r="F192" s="58"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="58"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="48"/>
-    </row>
-    <row r="193" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="11"/>
-      <c r="B193" s="64">
-        <v>1</v>
-      </c>
-      <c r="C193" s="63"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="63"/>
-      <c r="F193" s="63"/>
-      <c r="G193" s="63"/>
-      <c r="H193" s="63"/>
-      <c r="I193" s="63"/>
-      <c r="J193" s="63"/>
-      <c r="K193" s="48"/>
-    </row>
-    <row r="194" spans="1:11" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A194" s="11"/>
-      <c r="B194" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C194" s="60">
+      <c r="B190" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C190" s="60">
         <f>19*140</f>
         <v>2660</v>
       </c>
-      <c r="D194" s="60">
-        <f t="shared" ref="D194:E194" si="4">19*140</f>
+      <c r="D190" s="60">
+        <f t="shared" ref="D190:E190" si="4">19*140</f>
         <v>2660</v>
       </c>
-      <c r="E194" s="60">
+      <c r="E190" s="60">
         <f t="shared" si="4"/>
         <v>2660</v>
       </c>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="60"/>
-      <c r="I194" s="60"/>
-      <c r="J194" s="60"/>
+      <c r="F190" s="60"/>
+      <c r="G190" s="60"/>
+      <c r="H190" s="60"/>
+      <c r="I190" s="60"/>
+      <c r="J190" s="60"/>
+      <c r="K190" s="48"/>
+    </row>
+    <row r="191" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
+      <c r="B191" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C191" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="D191" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="E191" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="F191" s="62"/>
+      <c r="G191" s="60"/>
+      <c r="H191" s="60"/>
+      <c r="I191" s="60"/>
+      <c r="J191" s="60"/>
+      <c r="K191" s="48"/>
+    </row>
+    <row r="192" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="11"/>
+      <c r="B192" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" s="60">
+        <v>-1750</v>
+      </c>
+      <c r="D192" s="60">
+        <v>-1750</v>
+      </c>
+      <c r="E192" s="60">
+        <v>-1750</v>
+      </c>
+      <c r="F192" s="60"/>
+      <c r="G192" s="60"/>
+      <c r="H192" s="60"/>
+      <c r="I192" s="60"/>
+      <c r="J192" s="60"/>
+      <c r="K192" s="48"/>
+    </row>
+    <row r="193" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="11"/>
+      <c r="B193" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="60">
+        <v>-1600</v>
+      </c>
+      <c r="D193" s="60">
+        <v>-1600</v>
+      </c>
+      <c r="E193" s="60">
+        <v>-1600</v>
+      </c>
+      <c r="F193" s="60"/>
+      <c r="G193" s="60"/>
+      <c r="H193" s="60"/>
+      <c r="I193" s="60"/>
+      <c r="J193" s="60"/>
+      <c r="K193" s="48"/>
+    </row>
+    <row r="194" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="11"/>
+      <c r="B194" s="64">
+        <f>B189+1</f>
+        <v>2</v>
+      </c>
+      <c r="C194" s="63"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="63"/>
+      <c r="F194" s="63"/>
+      <c r="G194" s="63"/>
+      <c r="H194" s="63"/>
+      <c r="I194" s="63"/>
+      <c r="J194" s="118"/>
       <c r="K194" s="48"/>
     </row>
-    <row r="195" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
-      <c r="B195" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C195" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="D195" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="E195" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="F195" s="62"/>
+      <c r="B195" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C195" s="60">
+        <f>19*140</f>
+        <v>2660</v>
+      </c>
+      <c r="D195" s="60">
+        <f t="shared" ref="D195:E195" si="5">19*140</f>
+        <v>2660</v>
+      </c>
+      <c r="E195" s="60">
+        <f t="shared" si="5"/>
+        <v>2660</v>
+      </c>
+      <c r="F195" s="60"/>
       <c r="G195" s="60"/>
       <c r="H195" s="60"/>
       <c r="I195" s="60"/>
       <c r="J195" s="60"/>
       <c r="K195" s="48"/>
     </row>
-    <row r="196" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C196" s="60">
-        <v>-1750</v>
-      </c>
-      <c r="D196" s="60">
-        <v>-1750</v>
-      </c>
-      <c r="E196" s="60">
-        <v>-1750</v>
-      </c>
-      <c r="F196" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="C196" s="62">
+        <f>C191</f>
+        <v>0.25</v>
+      </c>
+      <c r="D196" s="62">
+        <f t="shared" ref="D196:E196" si="6">D191</f>
+        <v>0.25</v>
+      </c>
+      <c r="E196" s="62">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="F196" s="62"/>
       <c r="G196" s="60"/>
       <c r="H196" s="60"/>
       <c r="I196" s="60"/>
       <c r="J196" s="60"/>
       <c r="K196" s="48"/>
     </row>
-    <row r="197" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="55" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C197" s="60">
         <v>-1600</v>
@@ -5888,104 +5999,107 @@
       <c r="J197" s="60"/>
       <c r="K197" s="48"/>
     </row>
-    <row r="198" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
-      <c r="B198" s="64">
-        <f>B193+1</f>
-        <v>2</v>
-      </c>
-      <c r="C198" s="63"/>
-      <c r="D198" s="63"/>
-      <c r="E198" s="63"/>
-      <c r="F198" s="63"/>
-      <c r="G198" s="63"/>
-      <c r="H198" s="63"/>
-      <c r="I198" s="63"/>
-      <c r="J198" s="63"/>
+      <c r="B198" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" s="60">
+        <v>-1900</v>
+      </c>
+      <c r="D198" s="60">
+        <v>-1900</v>
+      </c>
+      <c r="E198" s="60">
+        <v>-1900</v>
+      </c>
+      <c r="F198" s="60"/>
+      <c r="G198" s="60"/>
+      <c r="H198" s="60"/>
+      <c r="I198" s="60"/>
+      <c r="J198" s="60"/>
       <c r="K198" s="48"/>
     </row>
-    <row r="199" spans="1:11" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
-      <c r="B199" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C199" s="60">
+      <c r="B199" s="64">
+        <f>B194+1</f>
+        <v>3</v>
+      </c>
+      <c r="C199" s="63"/>
+      <c r="D199" s="63"/>
+      <c r="E199" s="63"/>
+      <c r="F199" s="63"/>
+      <c r="G199" s="63"/>
+      <c r="H199" s="63"/>
+      <c r="I199" s="63"/>
+      <c r="J199" s="118"/>
+      <c r="K199" s="48"/>
+    </row>
+    <row r="200" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" s="60">
         <f>19*140</f>
         <v>2660</v>
       </c>
-      <c r="D199" s="60">
-        <f t="shared" ref="D199:E199" si="5">19*140</f>
+      <c r="D200" s="60">
+        <f t="shared" ref="D200:E200" si="7">19*140</f>
         <v>2660</v>
       </c>
-      <c r="E199" s="60">
-        <f t="shared" si="5"/>
+      <c r="E200" s="60">
+        <f t="shared" si="7"/>
         <v>2660</v>
       </c>
-      <c r="F199" s="60"/>
-      <c r="G199" s="60"/>
-      <c r="H199" s="60"/>
-      <c r="I199" s="60"/>
-      <c r="J199" s="60"/>
-      <c r="K199" s="48"/>
-    </row>
-    <row r="200" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="11"/>
-      <c r="B200" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C200" s="62">
-        <f>C195</f>
-        <v>0.25</v>
-      </c>
-      <c r="D200" s="62">
-        <f t="shared" ref="D200:E200" si="6">D195</f>
-        <v>0.25</v>
-      </c>
-      <c r="E200" s="62">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="F200" s="62"/>
+      <c r="F200" s="60"/>
       <c r="G200" s="60"/>
       <c r="H200" s="60"/>
       <c r="I200" s="60"/>
       <c r="J200" s="60"/>
       <c r="K200" s="48"/>
     </row>
-    <row r="201" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C201" s="60">
-        <v>-1600</v>
-      </c>
-      <c r="D201" s="60">
-        <v>-1600</v>
-      </c>
-      <c r="E201" s="60">
-        <v>-1600</v>
-      </c>
-      <c r="F201" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="C201" s="62">
+        <f>C196</f>
+        <v>0.25</v>
+      </c>
+      <c r="D201" s="62">
+        <f t="shared" ref="D201:E201" si="8">D196</f>
+        <v>0.25</v>
+      </c>
+      <c r="E201" s="62">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="F201" s="62"/>
       <c r="G201" s="60"/>
       <c r="H201" s="60"/>
       <c r="I201" s="60"/>
       <c r="J201" s="60"/>
       <c r="K201" s="48"/>
     </row>
-    <row r="202" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="55" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C202" s="60">
-        <v>-1900</v>
+        <f>C192*-1</f>
+        <v>1750</v>
       </c>
       <c r="D202" s="60">
-        <v>-1900</v>
+        <f t="shared" ref="D202:E202" si="9">D192*-1</f>
+        <v>1750</v>
       </c>
       <c r="E202" s="60">
-        <v>-1900</v>
+        <f t="shared" si="9"/>
+        <v>1750</v>
       </c>
       <c r="F202" s="60"/>
       <c r="G202" s="60"/>
@@ -5994,110 +6108,110 @@
       <c r="J202" s="60"/>
       <c r="K202" s="48"/>
     </row>
-    <row r="203" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
-      <c r="B203" s="64">
-        <f>B198+1</f>
-        <v>3</v>
-      </c>
-      <c r="C203" s="63"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="63"/>
-      <c r="F203" s="63"/>
-      <c r="G203" s="63"/>
-      <c r="H203" s="63"/>
-      <c r="I203" s="63"/>
-      <c r="J203" s="63"/>
+      <c r="B203" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="60">
+        <f>C193</f>
+        <v>-1600</v>
+      </c>
+      <c r="D203" s="60">
+        <f t="shared" ref="D203:E203" si="10">D193</f>
+        <v>-1600</v>
+      </c>
+      <c r="E203" s="60">
+        <f t="shared" si="10"/>
+        <v>-1600</v>
+      </c>
+      <c r="F203" s="60"/>
+      <c r="G203" s="60"/>
+      <c r="H203" s="60"/>
+      <c r="I203" s="60"/>
+      <c r="J203" s="60"/>
       <c r="K203" s="48"/>
     </row>
-    <row r="204" spans="1:11" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
-      <c r="B204" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C204" s="60">
+      <c r="B204" s="64">
+        <f>B199+1</f>
+        <v>4</v>
+      </c>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="63"/>
+      <c r="H204" s="63"/>
+      <c r="I204" s="63"/>
+      <c r="J204" s="118"/>
+      <c r="K204" s="48"/>
+    </row>
+    <row r="205" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A205" s="11"/>
+      <c r="B205" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" s="60">
         <f>19*140</f>
         <v>2660</v>
       </c>
-      <c r="D204" s="60">
-        <f t="shared" ref="D204:E204" si="7">19*140</f>
+      <c r="D205" s="60">
+        <f t="shared" ref="D205:E205" si="11">19*140</f>
         <v>2660</v>
       </c>
-      <c r="E204" s="60">
-        <f t="shared" si="7"/>
+      <c r="E205" s="60">
+        <f t="shared" si="11"/>
         <v>2660</v>
       </c>
-      <c r="F204" s="60"/>
-      <c r="G204" s="60"/>
-      <c r="H204" s="60"/>
-      <c r="I204" s="60"/>
-      <c r="J204" s="60"/>
-      <c r="K204" s="48"/>
-    </row>
-    <row r="205" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="11"/>
-      <c r="B205" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C205" s="62">
-        <f>C200</f>
-        <v>0.25</v>
-      </c>
-      <c r="D205" s="62">
-        <f t="shared" ref="D205:E205" si="8">D200</f>
-        <v>0.25</v>
-      </c>
-      <c r="E205" s="62">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="F205" s="62"/>
+      <c r="F205" s="60"/>
       <c r="G205" s="60"/>
       <c r="H205" s="60"/>
       <c r="I205" s="60"/>
       <c r="J205" s="60"/>
       <c r="K205" s="48"/>
     </row>
-    <row r="206" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C206" s="60">
-        <f>C196*-1</f>
-        <v>1750</v>
-      </c>
-      <c r="D206" s="60">
-        <f t="shared" ref="D206:E206" si="9">D196*-1</f>
-        <v>1750</v>
-      </c>
-      <c r="E206" s="60">
-        <f t="shared" si="9"/>
-        <v>1750</v>
-      </c>
-      <c r="F206" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="C206" s="62">
+        <f t="shared" ref="C206:E206" si="12">C191</f>
+        <v>0.25</v>
+      </c>
+      <c r="D206" s="62">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="E206" s="62">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="F206" s="62"/>
       <c r="G206" s="60"/>
       <c r="H206" s="60"/>
       <c r="I206" s="60"/>
       <c r="J206" s="60"/>
       <c r="K206" s="48"/>
     </row>
-    <row r="207" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="55" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C207" s="60">
-        <f>C197</f>
-        <v>-1600</v>
+        <f>C197*-1</f>
+        <v>1600</v>
       </c>
       <c r="D207" s="60">
-        <f t="shared" ref="D207:E207" si="10">D197</f>
-        <v>-1600</v>
+        <f t="shared" ref="D207:E207" si="13">D197*-1</f>
+        <v>1600</v>
       </c>
       <c r="E207" s="60">
-        <f t="shared" si="10"/>
-        <v>-1600</v>
+        <f t="shared" si="13"/>
+        <v>1600</v>
       </c>
       <c r="F207" s="60"/>
       <c r="G207" s="60"/>
@@ -6106,111 +6220,84 @@
       <c r="J207" s="60"/>
       <c r="K207" s="48"/>
     </row>
-    <row r="208" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
-      <c r="B208" s="64">
-        <f>B203+1</f>
-        <v>4</v>
-      </c>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
-      <c r="J208" s="63"/>
+      <c r="B208" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" s="60">
+        <f>C198</f>
+        <v>-1900</v>
+      </c>
+      <c r="D208" s="60">
+        <f t="shared" ref="D208:E208" si="14">D198</f>
+        <v>-1900</v>
+      </c>
+      <c r="E208" s="60">
+        <f t="shared" si="14"/>
+        <v>-1900</v>
+      </c>
+      <c r="F208" s="60"/>
+      <c r="G208" s="60"/>
+      <c r="H208" s="60"/>
+      <c r="I208" s="60"/>
+      <c r="J208" s="60"/>
       <c r="K208" s="48"/>
     </row>
-    <row r="209" spans="1:26" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
-      <c r="B209" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C209" s="60">
-        <f>19*140</f>
-        <v>2660</v>
-      </c>
-      <c r="D209" s="60">
-        <f t="shared" ref="D209:E209" si="11">19*140</f>
-        <v>2660</v>
-      </c>
-      <c r="E209" s="60">
-        <f t="shared" si="11"/>
-        <v>2660</v>
-      </c>
-      <c r="F209" s="60"/>
-      <c r="G209" s="60"/>
-      <c r="H209" s="60"/>
-      <c r="I209" s="60"/>
-      <c r="J209" s="60"/>
+      <c r="B209" s="64">
+        <f>B204+1</f>
+        <v>5</v>
+      </c>
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
+      <c r="G209" s="63"/>
+      <c r="H209" s="63"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="118"/>
       <c r="K209" s="48"/>
     </row>
-    <row r="210" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
-      <c r="B210" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C210" s="62">
-        <f t="shared" ref="C210:E210" si="12">C195</f>
-        <v>0.25</v>
-      </c>
-      <c r="D210" s="62">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="E210" s="62">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="F210" s="62"/>
+      <c r="B210" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" s="60"/>
+      <c r="D210" s="60"/>
+      <c r="E210" s="60"/>
+      <c r="F210" s="60"/>
       <c r="G210" s="60"/>
       <c r="H210" s="60"/>
       <c r="I210" s="60"/>
       <c r="J210" s="60"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C211" s="60">
-        <f>C201*-1</f>
-        <v>1600</v>
-      </c>
-      <c r="D211" s="60">
-        <f t="shared" ref="D211:E211" si="13">D201*-1</f>
-        <v>1600</v>
-      </c>
-      <c r="E211" s="60">
-        <f t="shared" si="13"/>
-        <v>1600</v>
-      </c>
-      <c r="F211" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="C211" s="62"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="62"/>
+      <c r="F211" s="62"/>
       <c r="G211" s="60"/>
       <c r="H211" s="60"/>
       <c r="I211" s="60"/>
       <c r="J211" s="60"/>
       <c r="K211" s="48"/>
     </row>
-    <row r="212" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C212" s="60">
-        <f>C202</f>
-        <v>-1900</v>
-      </c>
-      <c r="D212" s="60">
-        <f t="shared" ref="D212:E212" si="14">D202</f>
-        <v>-1900</v>
-      </c>
-      <c r="E212" s="60">
-        <f t="shared" si="14"/>
-        <v>-1900</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C212" s="60"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="60"/>
       <c r="F212" s="60"/>
       <c r="G212" s="60"/>
       <c r="H212" s="60"/>
@@ -6218,71 +6305,71 @@
       <c r="J212" s="60"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
-      <c r="B213" s="64">
-        <f>B208+1</f>
-        <v>5</v>
-      </c>
-      <c r="C213" s="63"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="63"/>
-      <c r="I213" s="63"/>
-      <c r="J213" s="63"/>
+      <c r="B213" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="60"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="60"/>
+      <c r="G213" s="60"/>
+      <c r="H213" s="60"/>
+      <c r="I213" s="60"/>
+      <c r="J213" s="60"/>
       <c r="K213" s="48"/>
     </row>
-    <row r="214" spans="1:26" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
-      <c r="B214" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C214" s="60"/>
-      <c r="D214" s="60"/>
-      <c r="E214" s="60"/>
-      <c r="F214" s="60"/>
-      <c r="G214" s="60"/>
-      <c r="H214" s="60"/>
-      <c r="I214" s="60"/>
-      <c r="J214" s="60"/>
+      <c r="B214" s="64">
+        <f>B209+1</f>
+        <v>6</v>
+      </c>
+      <c r="C214" s="63"/>
+      <c r="D214" s="63"/>
+      <c r="E214" s="63"/>
+      <c r="F214" s="63"/>
+      <c r="G214" s="63"/>
+      <c r="H214" s="63"/>
+      <c r="I214" s="63"/>
+      <c r="J214" s="118"/>
       <c r="K214" s="48"/>
     </row>
-    <row r="215" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
-      <c r="B215" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C215" s="62"/>
-      <c r="D215" s="62"/>
-      <c r="E215" s="62"/>
-      <c r="F215" s="62"/>
+      <c r="B215" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C215" s="60"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="60"/>
       <c r="G215" s="60"/>
       <c r="H215" s="60"/>
       <c r="I215" s="60"/>
       <c r="J215" s="60"/>
       <c r="K215" s="48"/>
     </row>
-    <row r="216" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C216" s="60"/>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
-      <c r="F216" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="C216" s="62"/>
+      <c r="D216" s="62"/>
+      <c r="E216" s="62"/>
+      <c r="F216" s="62"/>
       <c r="G216" s="60"/>
       <c r="H216" s="60"/>
       <c r="I216" s="60"/>
       <c r="J216" s="60"/>
       <c r="K216" s="48"/>
     </row>
-    <row r="217" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="55" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C217" s="60"/>
       <c r="D217" s="60"/>
@@ -6294,148 +6381,87 @@
       <c r="J217" s="60"/>
       <c r="K217" s="48"/>
     </row>
-    <row r="218" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
-      <c r="B218" s="64">
-        <f>B213+1</f>
-        <v>6</v>
-      </c>
-      <c r="C218" s="63"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="63"/>
-      <c r="F218" s="63"/>
-      <c r="G218" s="63"/>
-      <c r="H218" s="63"/>
-      <c r="I218" s="63"/>
-      <c r="J218" s="63"/>
+      <c r="B218" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" s="60"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="60"/>
+      <c r="F218" s="60"/>
+      <c r="G218" s="60"/>
+      <c r="H218" s="60"/>
+      <c r="I218" s="60"/>
+      <c r="J218" s="60"/>
       <c r="K218" s="48"/>
     </row>
-    <row r="219" spans="1:26" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A219" s="11"/>
-      <c r="B219" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C219" s="60"/>
-      <c r="D219" s="60"/>
-      <c r="E219" s="60"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="60"/>
-      <c r="H219" s="60"/>
-      <c r="I219" s="60"/>
-      <c r="J219" s="60"/>
-      <c r="K219" s="48"/>
-    </row>
-    <row r="220" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="11"/>
-      <c r="B220" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C220" s="62"/>
-      <c r="D220" s="62"/>
-      <c r="E220" s="62"/>
-      <c r="F220" s="62"/>
-      <c r="G220" s="60"/>
-      <c r="H220" s="60"/>
-      <c r="I220" s="60"/>
-      <c r="J220" s="60"/>
-      <c r="K220" s="48"/>
-    </row>
-    <row r="221" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="11"/>
-      <c r="B221" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="48"/>
-    </row>
-    <row r="222" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="11"/>
-      <c r="B222" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C222" s="60"/>
-      <c r="D222" s="60"/>
-      <c r="E222" s="60"/>
-      <c r="F222" s="60"/>
-      <c r="G222" s="60"/>
-      <c r="H222" s="60"/>
-      <c r="I222" s="60"/>
-      <c r="J222" s="60"/>
-      <c r="K222" s="48"/>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A223" s="114"/>
-      <c r="B223" s="115"/>
-      <c r="C223" s="115"/>
-      <c r="D223" s="116"/>
-      <c r="E223" s="116"/>
-      <c r="F223" s="116"/>
-      <c r="G223" s="116"/>
-      <c r="H223" s="116"/>
-      <c r="I223" s="116"/>
-      <c r="J223" s="116"/>
-      <c r="K223" s="117"/>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A219" s="89"/>
+      <c r="B219" s="90"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="91"/>
+      <c r="E219" s="91"/>
+      <c r="F219" s="91"/>
+      <c r="G219" s="91"/>
+      <c r="H219" s="91"/>
+      <c r="I219" s="91"/>
+      <c r="J219" s="91"/>
+      <c r="K219" s="92"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y224" s="1"/>
-      <c r="Z224" s="1"/>
-    </row>
-    <row r="225" spans="25:26" x14ac:dyDescent="0.2">
-      <c r="Y225" s="1"/>
-      <c r="Z225" s="1"/>
-    </row>
-    <row r="226" spans="25:26" x14ac:dyDescent="0.2">
-      <c r="Y226" s="1"/>
-      <c r="Z226" s="1"/>
-    </row>
-    <row r="227" spans="25:26" x14ac:dyDescent="0.2">
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B175:J175"/>
+    <mergeCell ref="B171:J171"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B159:J159"/>
-    <mergeCell ref="B98:J98"/>
+    <mergeCell ref="B155:J155"/>
+    <mergeCell ref="B96:J96"/>
     <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E109:J109"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E111:J111"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B64:B85 G64:G85 B90:B95 B120:B157 B187:J187">
+  <conditionalFormatting sqref="B64:B85 G64:G85 B90:B94 B118:B153 B183:J183">
     <cfRule type="cellIs" dxfId="2" priority="29" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120:E157">
+  <conditionalFormatting sqref="E118:E153">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H120:H157">
+  <conditionalFormatting sqref="H118:H153">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E184 E165 E23:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E180 E161 E22:E24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select an input from the list only." sqref="I47" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -6450,7 +6476,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:J4" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"ANALYSING,DONE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select an input from the list only." sqref="E109" xr:uid="{496976B7-A501-4D8C-833D-DF3C5F80E10D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select an input from the list only." sqref="E107" xr:uid="{496976B7-A501-4D8C-833D-DF3C5F80E10D}">
       <formula1>"Rectangle,Custom,Import DXF,Relative DXF,Varying DXF,Relative Varying DXF,Varying Custom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6458,7 +6484,7 @@
   <pageSetup scale="66" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="86" max="10" man="1"/>
-    <brk id="174" max="10" man="1"/>
+    <brk id="170" max="10" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6470,79 +6496,79 @@
   <dimension ref="A1:Z117"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="73" customWidth="1"/>
-    <col min="3" max="11" width="13.7109375" style="73" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="13.6640625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="73" customWidth="1"/>
+    <col min="3" max="11" width="13.6640625" style="73" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65"/>
       <c r="E1" s="66"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E2" s="66"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E4" s="66"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E5" s="66"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E6" s="66"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E7" s="66"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="66"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
       <c r="D9" s="70"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="69"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
       <c r="D10" s="70"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="102"/>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="109"/>
       <c r="C11" s="71">
         <v>1</v>
       </c>
@@ -6560,19 +6586,19 @@
       <c r="K11" s="71"/>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="102"/>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="109"/>
       <c r="C12" s="71" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
@@ -6582,11 +6608,11 @@
       <c r="K12" s="71"/>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="102"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="109"/>
       <c r="C13" s="81">
         <v>4.2881508278906946</v>
       </c>
@@ -6604,11 +6630,11 @@
       <c r="K13" s="81"/>
       <c r="L13" s="81"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="102"/>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="109"/>
       <c r="C14" s="81">
         <v>0.82981866095167012</v>
       </c>
@@ -6626,11 +6652,11 @@
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="102"/>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="109"/>
       <c r="C15" s="81">
         <v>1.2701813390483299</v>
       </c>
@@ -6648,11 +6674,11 @@
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="106"/>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="113"/>
       <c r="C16" s="81">
         <v>1.494906844137567</v>
       </c>
@@ -6671,10 +6697,10 @@
       <c r="L16" s="81"/>
     </row>
     <row r="17" spans="1:26" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="106"/>
+      <c r="A17" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="113"/>
       <c r="C17" s="81">
         <v>2.4711123744273245</v>
       </c>
@@ -6692,11 +6718,11 @@
       <c r="K17" s="81"/>
       <c r="L17" s="81"/>
     </row>
-    <row r="18" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="102"/>
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="109"/>
       <c r="C18" s="72">
         <v>0</v>
       </c>
@@ -6714,11 +6740,11 @@
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="102"/>
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="109"/>
       <c r="C19" s="72">
         <v>10640</v>
       </c>
@@ -6736,11 +6762,11 @@
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
     </row>
-    <row r="20" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="101"/>
+    <row r="20" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="108"/>
       <c r="C20" s="72">
         <v>0</v>
       </c>
@@ -6758,11 +6784,11 @@
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
     </row>
-    <row r="21" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="101"/>
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="108"/>
       <c r="C21" s="82">
         <v>15000</v>
       </c>
@@ -6780,11 +6806,11 @@
       <c r="K21" s="82"/>
       <c r="L21" s="82"/>
     </row>
-    <row r="22" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="102"/>
+    <row r="22" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="109"/>
       <c r="C22" s="83">
         <v>0.36004974112693489</v>
       </c>
@@ -6802,11 +6828,11 @@
       <c r="K22" s="83"/>
       <c r="L22" s="83"/>
     </row>
-    <row r="23" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="102"/>
+    <row r="23" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="109"/>
       <c r="C23" s="83">
         <v>1.6160478769457856</v>
       </c>
@@ -6824,11 +6850,11 @@
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
     </row>
-    <row r="24" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="101"/>
+    <row r="24" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="108"/>
       <c r="C24" s="84">
         <v>26065.764547389375</v>
       </c>
@@ -6846,11 +6872,11 @@
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="104"/>
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="111"/>
       <c r="C25" s="85">
         <v>0.57546748620125665</v>
       </c>
@@ -6868,19 +6894,19 @@
       <c r="K25" s="85"/>
       <c r="L25" s="85"/>
     </row>
-    <row r="26" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="102"/>
+    <row r="26" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="109"/>
       <c r="C26" s="79" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E26" s="79" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F26" s="79"/>
       <c r="G26" s="79"/>
@@ -6904,7 +6930,7 @@
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
     </row>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -6916,7 +6942,7 @@
       <c r="J27" s="78"/>
       <c r="K27" s="75"/>
     </row>
-    <row r="28" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
@@ -6929,7 +6955,7 @@
       <c r="J28" s="73"/>
       <c r="K28" s="76"/>
     </row>
-    <row r="29" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
@@ -6942,7 +6968,7 @@
       <c r="J29" s="73"/>
       <c r="K29" s="76"/>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
@@ -6955,7 +6981,7 @@
       <c r="J30" s="73"/>
       <c r="K30" s="76"/>
     </row>
-    <row r="31" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -6968,7 +6994,7 @@
       <c r="J31" s="73"/>
       <c r="K31" s="76"/>
     </row>
-    <row r="32" spans="1:26" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -6981,7 +7007,7 @@
       <c r="J32" s="73"/>
       <c r="K32" s="76"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="73"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
@@ -6994,7 +7020,7 @@
       <c r="J33" s="73"/>
       <c r="K33" s="76"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -7007,7 +7033,7 @@
       <c r="J34" s="73"/>
       <c r="K34" s="76"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -7020,7 +7046,7 @@
       <c r="J35" s="73"/>
       <c r="K35" s="76"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
@@ -7033,7 +7059,7 @@
       <c r="J36" s="73"/>
       <c r="K36" s="76"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -7046,7 +7072,7 @@
       <c r="J37" s="73"/>
       <c r="K37" s="76"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -7059,7 +7085,7 @@
       <c r="J38" s="73"/>
       <c r="K38" s="76"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
@@ -7072,7 +7098,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="76"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
@@ -7085,7 +7111,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
@@ -7098,7 +7124,7 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="73"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
@@ -7111,7 +7137,7 @@
       <c r="J42" s="73"/>
       <c r="K42" s="76"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="73"/>
       <c r="B43" s="73"/>
       <c r="C43" s="73"/>
@@ -7124,7 +7150,7 @@
       <c r="J43" s="73"/>
       <c r="K43" s="76"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="73"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
@@ -7137,7 +7163,7 @@
       <c r="J44" s="73"/>
       <c r="K44" s="76"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="73"/>
       <c r="B45" s="73"/>
       <c r="C45" s="73"/>
@@ -7150,7 +7176,7 @@
       <c r="J45" s="73"/>
       <c r="K45" s="76"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="73"/>
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
@@ -7163,7 +7189,7 @@
       <c r="J46" s="73"/>
       <c r="K46" s="76"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="73"/>
       <c r="B47" s="73"/>
       <c r="C47" s="73"/>
@@ -7176,7 +7202,7 @@
       <c r="J47" s="73"/>
       <c r="K47" s="76"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="73"/>
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
@@ -7189,7 +7215,7 @@
       <c r="J48" s="73"/>
       <c r="K48" s="76"/>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73"/>
       <c r="B49" s="73"/>
       <c r="C49" s="73"/>
@@ -7202,7 +7228,7 @@
       <c r="J49" s="73"/>
       <c r="K49" s="76"/>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="73"/>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
@@ -7215,7 +7241,7 @@
       <c r="J50" s="73"/>
       <c r="K50" s="76"/>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="73"/>
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
@@ -7228,7 +7254,7 @@
       <c r="J51" s="73"/>
       <c r="K51" s="76"/>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="73"/>
       <c r="B52" s="73"/>
       <c r="C52" s="73"/>
@@ -7241,185 +7267,185 @@
       <c r="J52" s="73"/>
       <c r="K52" s="76"/>
     </row>
-    <row r="53" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K53" s="76"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K54" s="76"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K55" s="76"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K56" s="76"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K57" s="76"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K58" s="76"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K59" s="76"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K60" s="76"/>
     </row>
-    <row r="61" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K61" s="76"/>
     </row>
-    <row r="62" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K62" s="76"/>
     </row>
-    <row r="63" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K63" s="76"/>
     </row>
-    <row r="64" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K64" s="76"/>
     </row>
-    <row r="65" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K65" s="76"/>
     </row>
-    <row r="66" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K66" s="76"/>
     </row>
-    <row r="67" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K67" s="76"/>
     </row>
-    <row r="68" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K68" s="76"/>
     </row>
-    <row r="69" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K69" s="76"/>
     </row>
-    <row r="70" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K70" s="76"/>
     </row>
-    <row r="71" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K71" s="76"/>
     </row>
-    <row r="72" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K72" s="76"/>
     </row>
-    <row r="73" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K73" s="76"/>
     </row>
-    <row r="74" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K74" s="76"/>
     </row>
-    <row r="75" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K75" s="76"/>
     </row>
-    <row r="76" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K76" s="76"/>
     </row>
-    <row r="77" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K77" s="76"/>
     </row>
-    <row r="78" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K78" s="76"/>
     </row>
-    <row r="79" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K79" s="76"/>
     </row>
-    <row r="80" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K80" s="76"/>
     </row>
-    <row r="81" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K81" s="76"/>
     </row>
-    <row r="82" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K82" s="76"/>
     </row>
-    <row r="83" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K83" s="76"/>
     </row>
-    <row r="84" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K84" s="76"/>
     </row>
-    <row r="85" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K85" s="76"/>
     </row>
-    <row r="86" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K86" s="76"/>
     </row>
-    <row r="87" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K87" s="76"/>
     </row>
-    <row r="88" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K88" s="76"/>
     </row>
-    <row r="89" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K89" s="76"/>
     </row>
-    <row r="90" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K90" s="76"/>
     </row>
-    <row r="91" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K91" s="76"/>
     </row>
-    <row r="92" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K92" s="76"/>
     </row>
-    <row r="93" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K93" s="76"/>
     </row>
-    <row r="94" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K94" s="76"/>
     </row>
-    <row r="95" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K95" s="76"/>
     </row>
-    <row r="96" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K96" s="76"/>
     </row>
-    <row r="97" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K97" s="76"/>
     </row>
-    <row r="98" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K98" s="76"/>
     </row>
-    <row r="99" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K99" s="76"/>
     </row>
-    <row r="100" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K100" s="76"/>
     </row>
-    <row r="101" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K101" s="76"/>
     </row>
-    <row r="102" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K102" s="76"/>
     </row>
-    <row r="103" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K103" s="76"/>
     </row>
-    <row r="104" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K104" s="76"/>
     </row>
-    <row r="105" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K105" s="76"/>
     </row>
-    <row r="106" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K106" s="76"/>
     </row>
-    <row r="107" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K107" s="76"/>
     </row>
-    <row r="108" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K108" s="76"/>
     </row>
-    <row r="109" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K109" s="76"/>
     </row>
-    <row r="110" spans="11:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="11:11" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K110" s="76"/>
     </row>
     <row r="111" spans="11:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7462,6 +7488,7 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A23:B23"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="93" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
